--- a/extra_data/attendance_data.xlsx
+++ b/extra_data/attendance_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanglenn/Repositories/gbv-health-provider-study/extra_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF2F1663-C5B9-AB43-8956-6E1135506084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E144A54-E0B3-7646-8C0D-DE792891180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-740" windowWidth="35920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2177,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1723"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/extra_data/attendance_data.xlsx
+++ b/extra_data/attendance_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/susanglenn/Repositories/gbv-health-provider-study/extra_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E144A54-E0B3-7646-8C0D-DE792891180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D2E055-B4C6-CC4C-AD12-2139DB200707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-740" windowWidth="35920" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="15200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8313" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8393" uniqueCount="586">
   <si>
     <t>health_center</t>
   </si>
@@ -1779,6 +1779,18 @@
   </si>
   <si>
     <t>participant_id_3</t>
+  </si>
+  <si>
+    <t>CHC Hatolia</t>
+  </si>
+  <si>
+    <t>tekniku aliadu</t>
+  </si>
+  <si>
+    <t>CHC Maubara</t>
+  </si>
+  <si>
+    <t>CHC Bazartete</t>
   </si>
 </sst>
 </file>
@@ -1788,13 +1800,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;[Red]\-#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1829,7 +1847,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1851,7 +1869,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1874,8 +1893,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="B1:G1723" totalsRowShown="0">
-  <autoFilter ref="B1:G1723" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="B1:G1738" totalsRowShown="0">
+  <autoFilter ref="B1:G1738" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="health_center"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="role"/>
@@ -2175,15 +2194,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1723"/>
+  <dimension ref="A1:G1739"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A1702" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1730" sqref="E1730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" customWidth="1"/>
@@ -2192,7 +2211,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" t="s">
         <v>581</v>
       </c>
       <c r="B1" t="s">
@@ -2215,7 +2234,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2">
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -2238,7 +2257,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3">
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2261,7 +2280,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4">
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2284,7 +2303,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5">
         <v>16</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2307,7 +2326,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2330,7 +2349,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2353,7 +2372,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8">
         <v>16</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2376,7 +2395,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+      <c r="A9">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2869,7 +2888,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="9">
+      <c r="A34">
         <v>51</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2892,7 +2911,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="9">
+      <c r="A35">
         <v>51</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2915,7 +2934,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="9">
+      <c r="A36">
         <v>51</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -2938,7 +2957,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="9">
+      <c r="A37">
         <v>51</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2961,7 +2980,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="9">
+      <c r="A38">
         <v>51</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2984,7 +3003,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="9">
+      <c r="A39">
         <v>51</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -3045,7 +3064,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="9">
+      <c r="A42">
         <v>61</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -3068,7 +3087,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="9">
+      <c r="A43">
         <v>61</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -3091,7 +3110,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="9">
+      <c r="A44">
         <v>61</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3114,7 +3133,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="9">
+      <c r="A45">
         <v>61</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -3137,7 +3156,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="9">
+      <c r="A46">
         <v>61</v>
       </c>
       <c r="B46" s="6" t="s">
@@ -3160,7 +3179,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="9">
+      <c r="A47">
         <v>61</v>
       </c>
       <c r="B47" s="6" t="s">
@@ -3183,7 +3202,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="9">
+      <c r="A48">
         <v>61</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -3204,7 +3223,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="9">
+      <c r="A49">
         <v>61</v>
       </c>
       <c r="B49" s="6" t="s">
@@ -3227,7 +3246,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9">
+      <c r="A50">
         <v>25</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -3250,7 +3269,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="9">
+      <c r="A51">
         <v>25</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -3505,7 +3524,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
+      <c r="A64"/>
       <c r="B64" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,7 +3565,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="9"/>
+      <c r="A66"/>
       <c r="B66" s="1" t="s">
         <v>37</v>
       </c>
@@ -3607,7 +3626,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9"/>
+      <c r="A69"/>
       <c r="B69" s="1" t="s">
         <v>9</v>
       </c>
@@ -4054,7 +4073,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
+      <c r="A92"/>
       <c r="B92" s="1" t="s">
         <v>45</v>
       </c>
@@ -4075,7 +4094,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
+      <c r="A93"/>
       <c r="B93" s="1" t="s">
         <v>45</v>
       </c>
@@ -4410,7 +4429,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="9"/>
+      <c r="A110"/>
       <c r="B110" s="1" t="s">
         <v>7</v>
       </c>
@@ -4431,7 +4450,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="9"/>
+      <c r="A111"/>
       <c r="B111" s="1" t="s">
         <v>7</v>
       </c>
@@ -4472,7 +4491,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9"/>
+      <c r="A113"/>
       <c r="B113" s="1" t="s">
         <v>28</v>
       </c>
@@ -4573,7 +4592,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" s="9">
+      <c r="A118">
         <v>6</v>
       </c>
       <c r="B118" s="3" t="s">
@@ -4596,7 +4615,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="9">
+      <c r="A119">
         <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
@@ -4619,7 +4638,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="9">
+      <c r="A120">
         <v>6</v>
       </c>
       <c r="B120" s="3" t="s">
@@ -4642,7 +4661,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="9">
+      <c r="A121">
         <v>6</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -4665,7 +4684,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="9">
+      <c r="A122">
         <v>6</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -4706,7 +4725,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="9"/>
+      <c r="A124"/>
       <c r="B124" s="1" t="s">
         <v>24</v>
       </c>
@@ -5019,7 +5038,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="9">
+      <c r="A140">
         <v>58</v>
       </c>
       <c r="B140" s="3" t="s">
@@ -5042,7 +5061,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="9">
+      <c r="A141">
         <v>58</v>
       </c>
       <c r="B141" s="3" t="s">
@@ -5065,7 +5084,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="9">
+      <c r="A142">
         <v>58</v>
       </c>
       <c r="B142" s="3" t="s">
@@ -5088,7 +5107,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="9">
+      <c r="A143">
         <v>58</v>
       </c>
       <c r="B143" s="3" t="s">
@@ -5111,7 +5130,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="9">
+      <c r="A144">
         <v>58</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -5134,7 +5153,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="9">
+      <c r="A145">
         <v>58</v>
       </c>
       <c r="B145" s="3" t="s">
@@ -5157,7 +5176,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="9">
+      <c r="A146">
         <v>58</v>
       </c>
       <c r="B146" s="3" t="s">
@@ -5258,7 +5277,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="9">
+      <c r="A151">
         <v>56</v>
       </c>
       <c r="B151" s="3" t="s">
@@ -5281,7 +5300,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="9">
+      <c r="A152">
         <v>56</v>
       </c>
       <c r="B152" s="3" t="s">
@@ -5302,7 +5321,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="9">
+      <c r="A153">
         <v>59</v>
       </c>
       <c r="B153" s="3" t="s">
@@ -5325,7 +5344,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="9">
+      <c r="A154">
         <v>59</v>
       </c>
       <c r="B154" s="3" t="s">
@@ -5348,7 +5367,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="9">
+      <c r="A155">
         <v>59</v>
       </c>
       <c r="B155" s="3" t="s">
@@ -5371,7 +5390,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="9">
+      <c r="A156">
         <v>59</v>
       </c>
       <c r="B156" s="3" t="s">
@@ -5392,7 +5411,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="9">
+      <c r="A157">
         <v>59</v>
       </c>
       <c r="B157" s="3" t="s">
@@ -5495,7 +5514,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="9"/>
+      <c r="A162"/>
       <c r="B162" s="1" t="s">
         <v>6</v>
       </c>
@@ -5516,7 +5535,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="9"/>
+      <c r="A163"/>
       <c r="B163" s="1" t="s">
         <v>10</v>
       </c>
@@ -5537,7 +5556,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="9"/>
+      <c r="A164"/>
       <c r="B164" s="1" t="s">
         <v>45</v>
       </c>
@@ -5756,7 +5775,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="9"/>
+      <c r="A175"/>
       <c r="B175" s="1" t="s">
         <v>31</v>
       </c>
@@ -5777,7 +5796,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="9"/>
+      <c r="A176"/>
       <c r="B176" s="1" t="s">
         <v>48</v>
       </c>
@@ -5818,7 +5837,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="9"/>
+      <c r="A178"/>
       <c r="B178" s="1" t="s">
         <v>48</v>
       </c>
@@ -5839,7 +5858,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="9"/>
+      <c r="A179"/>
       <c r="B179" s="1" t="s">
         <v>41</v>
       </c>
@@ -5860,7 +5879,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="9"/>
+      <c r="A180"/>
       <c r="B180" s="1" t="s">
         <v>32</v>
       </c>
@@ -5881,7 +5900,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="9"/>
+      <c r="A181"/>
       <c r="B181" s="1" t="s">
         <v>32</v>
       </c>
@@ -5922,7 +5941,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="9"/>
+      <c r="A183"/>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
@@ -5943,7 +5962,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="9"/>
+      <c r="A184"/>
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
@@ -5984,7 +6003,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="9"/>
+      <c r="A186"/>
       <c r="B186" s="1" t="s">
         <v>11</v>
       </c>
@@ -6003,7 +6022,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A187" s="9">
+      <c r="A187">
         <v>3</v>
       </c>
       <c r="B187" s="3" t="s">
@@ -6026,7 +6045,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="9">
+      <c r="A188">
         <v>3</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -6049,7 +6068,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="9">
+      <c r="A189">
         <v>3</v>
       </c>
       <c r="B189" s="3" t="s">
@@ -6072,7 +6091,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="9">
+      <c r="A190">
         <v>3</v>
       </c>
       <c r="B190" s="3" t="s">
@@ -6095,7 +6114,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="9">
+      <c r="A191">
         <v>3</v>
       </c>
       <c r="B191" s="3" t="s">
@@ -6118,7 +6137,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="9">
+      <c r="A192">
         <v>3</v>
       </c>
       <c r="B192" s="3" t="s">
@@ -6239,7 +6258,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="9"/>
+      <c r="A198"/>
       <c r="B198" s="1" t="s">
         <v>40</v>
       </c>
@@ -6260,7 +6279,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9"/>
+      <c r="A199"/>
       <c r="B199" s="1" t="s">
         <v>41</v>
       </c>
@@ -6281,7 +6300,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="9"/>
+      <c r="A200"/>
       <c r="B200" s="1" t="s">
         <v>27</v>
       </c>
@@ -6500,7 +6519,7 @@
       </c>
     </row>
     <row r="211" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="9">
+      <c r="A211">
         <v>52</v>
       </c>
       <c r="B211" s="3" t="s">
@@ -6541,7 +6560,7 @@
       </c>
     </row>
     <row r="213" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="9">
+      <c r="A213">
         <v>52</v>
       </c>
       <c r="B213" s="3" t="s">
@@ -6564,7 +6583,7 @@
       </c>
     </row>
     <row r="214" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="9">
+      <c r="A214">
         <v>52</v>
       </c>
       <c r="B214" s="3" t="s">
@@ -6587,7 +6606,7 @@
       </c>
     </row>
     <row r="215" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="9">
+      <c r="A215">
         <v>52</v>
       </c>
       <c r="B215" s="3" t="s">
@@ -6610,7 +6629,7 @@
       </c>
     </row>
     <row r="216" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="9">
+      <c r="A216">
         <v>52</v>
       </c>
       <c r="B216" s="3" t="s">
@@ -6633,7 +6652,7 @@
       </c>
     </row>
     <row r="217" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="9">
+      <c r="A217">
         <v>52</v>
       </c>
       <c r="B217" s="3" t="s">
@@ -6656,7 +6675,7 @@
       </c>
     </row>
     <row r="218" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="9"/>
+      <c r="A218"/>
       <c r="B218" s="1" t="s">
         <v>40</v>
       </c>
@@ -6677,7 +6696,7 @@
       </c>
     </row>
     <row r="219" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="9"/>
+      <c r="A219"/>
       <c r="B219" s="1" t="s">
         <v>26</v>
       </c>
@@ -6734,7 +6753,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="9"/>
+      <c r="A222"/>
       <c r="B222" s="1" t="s">
         <v>37</v>
       </c>
@@ -6775,7 +6794,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="9"/>
+      <c r="A224"/>
       <c r="B224" s="1" t="s">
         <v>37</v>
       </c>
@@ -6816,7 +6835,7 @@
       </c>
     </row>
     <row r="226" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="9"/>
+      <c r="A226"/>
       <c r="B226" s="1" t="s">
         <v>19</v>
       </c>
@@ -6995,7 +7014,7 @@
       </c>
     </row>
     <row r="235" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="9"/>
+      <c r="A235"/>
       <c r="B235" s="1" t="s">
         <v>48</v>
       </c>
@@ -7136,7 +7155,7 @@
       </c>
     </row>
     <row r="242" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="9">
+      <c r="A242">
         <v>57</v>
       </c>
       <c r="B242" s="3" t="s">
@@ -7159,7 +7178,7 @@
       </c>
     </row>
     <row r="243" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="9">
+      <c r="A243">
         <v>57</v>
       </c>
       <c r="B243" s="3" t="s">
@@ -7242,7 +7261,7 @@
       </c>
     </row>
     <row r="247" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="9"/>
+      <c r="A247"/>
       <c r="B247" s="1" t="s">
         <v>46</v>
       </c>
@@ -7261,7 +7280,7 @@
       </c>
     </row>
     <row r="248" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="9">
+      <c r="A248">
         <v>57</v>
       </c>
       <c r="B248" s="3" t="s">
@@ -7284,7 +7303,7 @@
       </c>
     </row>
     <row r="249" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="9">
+      <c r="A249">
         <v>57</v>
       </c>
       <c r="B249" s="3" t="s">
@@ -7307,7 +7326,7 @@
       </c>
     </row>
     <row r="250" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="9">
+      <c r="A250">
         <v>57</v>
       </c>
       <c r="B250" s="3" t="s">
@@ -7328,7 +7347,7 @@
       </c>
     </row>
     <row r="251" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="9">
+      <c r="A251">
         <v>57</v>
       </c>
       <c r="B251" s="3" t="s">
@@ -7351,7 +7370,7 @@
       </c>
     </row>
     <row r="252" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="9"/>
+      <c r="A252"/>
       <c r="B252" s="1" t="s">
         <v>7</v>
       </c>
@@ -7746,7 +7765,7 @@
       </c>
     </row>
     <row r="272" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A272" s="9"/>
+      <c r="A272"/>
       <c r="B272" s="1" t="s">
         <v>36</v>
       </c>
@@ -7767,7 +7786,7 @@
       </c>
     </row>
     <row r="273" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="9"/>
+      <c r="A273"/>
       <c r="B273" s="1" t="s">
         <v>36</v>
       </c>
@@ -7846,7 +7865,7 @@
       </c>
     </row>
     <row r="277" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="9"/>
+      <c r="A277"/>
       <c r="B277" s="1" t="s">
         <v>44</v>
       </c>
@@ -7903,7 +7922,7 @@
       </c>
     </row>
     <row r="280" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="9"/>
+      <c r="A280"/>
       <c r="B280" s="1" t="s">
         <v>28</v>
       </c>
@@ -7962,7 +7981,7 @@
       </c>
     </row>
     <row r="283" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="9"/>
+      <c r="A283"/>
       <c r="B283" s="1" t="s">
         <v>41</v>
       </c>
@@ -8021,7 +8040,7 @@
       </c>
     </row>
     <row r="286" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="9"/>
+      <c r="A286"/>
       <c r="B286" s="1" t="s">
         <v>41</v>
       </c>
@@ -8222,7 +8241,7 @@
       </c>
     </row>
     <row r="296" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="9"/>
+      <c r="A296"/>
       <c r="B296" s="1" t="s">
         <v>23</v>
       </c>
@@ -8775,7 +8794,7 @@
       </c>
     </row>
     <row r="324" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="9"/>
+      <c r="A324"/>
       <c r="B324" s="1" t="s">
         <v>27</v>
       </c>
@@ -8914,7 +8933,7 @@
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A331" s="9">
+      <c r="A331">
         <v>48</v>
       </c>
       <c r="B331" s="3" t="s">
@@ -8935,7 +8954,7 @@
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A332" s="9">
+      <c r="A332">
         <v>48</v>
       </c>
       <c r="B332" s="3" t="s">
@@ -8958,7 +8977,7 @@
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A333" s="9">
+      <c r="A333">
         <v>48</v>
       </c>
       <c r="B333" s="3" t="s">
@@ -8981,7 +9000,7 @@
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A334" s="9">
+      <c r="A334">
         <v>48</v>
       </c>
       <c r="B334" s="3" t="s">
@@ -9004,7 +9023,7 @@
       </c>
     </row>
     <row r="335" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="9">
+      <c r="A335">
         <v>62</v>
       </c>
       <c r="B335" s="3" t="s">
@@ -9027,7 +9046,7 @@
       </c>
     </row>
     <row r="336" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A336" s="9">
+      <c r="A336">
         <v>62</v>
       </c>
       <c r="B336" s="3" t="s">
@@ -9048,7 +9067,7 @@
       </c>
     </row>
     <row r="337" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A337" s="9">
+      <c r="A337">
         <v>62</v>
       </c>
       <c r="B337" s="3" t="s">
@@ -9071,7 +9090,7 @@
       </c>
     </row>
     <row r="338" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A338" s="9">
+      <c r="A338">
         <v>62</v>
       </c>
       <c r="B338" s="3" t="s">
@@ -9094,7 +9113,7 @@
       </c>
     </row>
     <row r="339" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="9">
+      <c r="A339">
         <v>62</v>
       </c>
       <c r="B339" s="3" t="s">
@@ -9435,7 +9454,7 @@
       </c>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A356" s="9">
+      <c r="A356">
         <v>44</v>
       </c>
       <c r="B356" s="3" t="s">
@@ -9458,7 +9477,7 @@
       </c>
     </row>
     <row r="357" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A357" s="9">
+      <c r="A357">
         <v>44</v>
       </c>
       <c r="B357" s="3" t="s">
@@ -9481,7 +9500,7 @@
       </c>
     </row>
     <row r="358" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A358" s="9">
+      <c r="A358">
         <v>44</v>
       </c>
       <c r="B358" s="3" t="s">
@@ -9504,7 +9523,7 @@
       </c>
     </row>
     <row r="359" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A359" s="9">
+      <c r="A359">
         <v>44</v>
       </c>
       <c r="B359" s="3" t="s">
@@ -9525,7 +9544,7 @@
       </c>
     </row>
     <row r="360" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A360" s="9"/>
+      <c r="A360"/>
       <c r="B360" s="1" t="s">
         <v>26</v>
       </c>
@@ -9584,7 +9603,7 @@
       </c>
     </row>
     <row r="363" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A363" s="9">
+      <c r="A363">
         <v>63</v>
       </c>
       <c r="B363" s="3" t="s">
@@ -9607,7 +9626,7 @@
       </c>
     </row>
     <row r="364" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A364" s="9">
+      <c r="A364">
         <v>63</v>
       </c>
       <c r="B364" s="3" t="s">
@@ -9628,7 +9647,7 @@
       </c>
     </row>
     <row r="365" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A365" s="9">
+      <c r="A365">
         <v>63</v>
       </c>
       <c r="B365" s="3" t="s">
@@ -9745,7 +9764,7 @@
       </c>
     </row>
     <row r="371" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A371" s="9"/>
+      <c r="A371"/>
       <c r="B371" s="1" t="s">
         <v>38</v>
       </c>
@@ -9766,7 +9785,7 @@
       </c>
     </row>
     <row r="372" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A372" s="9"/>
+      <c r="A372"/>
       <c r="B372" s="1" t="s">
         <v>34</v>
       </c>
@@ -9787,7 +9806,7 @@
       </c>
     </row>
     <row r="373" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A373" s="9"/>
+      <c r="A373"/>
       <c r="B373" s="1" t="s">
         <v>39</v>
       </c>
@@ -10044,7 +10063,7 @@
       </c>
     </row>
     <row r="386" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A386" s="9"/>
+      <c r="A386"/>
       <c r="B386" s="1" t="s">
         <v>21</v>
       </c>
@@ -10125,7 +10144,7 @@
       </c>
     </row>
     <row r="390" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A390" s="9"/>
+      <c r="A390"/>
       <c r="B390" s="1" t="s">
         <v>41</v>
       </c>
@@ -10166,7 +10185,7 @@
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A392" s="9">
+      <c r="A392">
         <v>46</v>
       </c>
       <c r="B392" s="3" t="s">
@@ -10189,7 +10208,7 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A393" s="9">
+      <c r="A393">
         <v>46</v>
       </c>
       <c r="B393" s="3" t="s">
@@ -10210,7 +10229,7 @@
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="9">
+      <c r="A394">
         <v>46</v>
       </c>
       <c r="B394" s="3" t="s">
@@ -10233,7 +10252,7 @@
       </c>
     </row>
     <row r="395" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A395" s="9">
+      <c r="A395">
         <v>46</v>
       </c>
       <c r="B395" s="3" t="s">
@@ -10294,7 +10313,7 @@
       </c>
     </row>
     <row r="398" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A398" s="9"/>
+      <c r="A398"/>
       <c r="B398" s="1" t="s">
         <v>28</v>
       </c>
@@ -10315,7 +10334,7 @@
       </c>
     </row>
     <row r="399" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A399" s="9"/>
+      <c r="A399"/>
       <c r="B399" s="1" t="s">
         <v>11</v>
       </c>
@@ -10432,7 +10451,7 @@
       </c>
     </row>
     <row r="405" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A405" s="9"/>
+      <c r="A405"/>
       <c r="B405" s="1" t="s">
         <v>6</v>
       </c>
@@ -10531,7 +10550,7 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="9">
+      <c r="A410">
         <v>2</v>
       </c>
       <c r="B410" s="3" t="s">
@@ -10554,7 +10573,7 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="9">
+      <c r="A411">
         <v>2</v>
       </c>
       <c r="B411" s="3" t="s">
@@ -10575,7 +10594,7 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="9">
+      <c r="A412">
         <v>2</v>
       </c>
       <c r="B412" s="3" t="s">
@@ -10598,7 +10617,7 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="9">
+      <c r="A413">
         <v>2</v>
       </c>
       <c r="B413" s="3" t="s">
@@ -10621,7 +10640,7 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="9">
+      <c r="A414">
         <v>2</v>
       </c>
       <c r="B414" s="3" t="s">
@@ -10644,7 +10663,7 @@
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="9">
+      <c r="A415">
         <v>2</v>
       </c>
       <c r="B415" s="3" t="s">
@@ -10707,7 +10726,7 @@
       </c>
     </row>
     <row r="418" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A418" s="9"/>
+      <c r="A418"/>
       <c r="B418" s="1" t="s">
         <v>37</v>
       </c>
@@ -10766,7 +10785,7 @@
       </c>
     </row>
     <row r="421" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A421" s="9"/>
+      <c r="A421"/>
       <c r="B421" s="1" t="s">
         <v>36</v>
       </c>
@@ -10827,7 +10846,7 @@
       </c>
     </row>
     <row r="424" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A424" s="9"/>
+      <c r="A424"/>
       <c r="B424" s="1" t="s">
         <v>48</v>
       </c>
@@ -10928,7 +10947,7 @@
       </c>
     </row>
     <row r="429" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A429" s="9"/>
+      <c r="A429"/>
       <c r="B429" s="1" t="s">
         <v>7</v>
       </c>
@@ -11069,7 +11088,7 @@
       </c>
     </row>
     <row r="436" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A436" s="9"/>
+      <c r="A436"/>
       <c r="B436" s="1" t="s">
         <v>48</v>
       </c>
@@ -11206,7 +11225,7 @@
       </c>
     </row>
     <row r="443" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A443" s="9">
+      <c r="A443">
         <v>1</v>
       </c>
       <c r="B443" s="3" t="s">
@@ -11229,7 +11248,7 @@
       </c>
     </row>
     <row r="444" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A444" s="9">
+      <c r="A444">
         <v>1</v>
       </c>
       <c r="B444" s="3" t="s">
@@ -11252,7 +11271,7 @@
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A445" s="9">
+      <c r="A445">
         <v>1</v>
       </c>
       <c r="B445" s="3" t="s">
@@ -11273,7 +11292,7 @@
       </c>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A446" s="9">
+      <c r="A446">
         <v>1</v>
       </c>
       <c r="B446" s="3" t="s">
@@ -11296,7 +11315,7 @@
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A447" s="9">
+      <c r="A447">
         <v>1</v>
       </c>
       <c r="B447" s="3" t="s">
@@ -11339,7 +11358,7 @@
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A449" s="9">
+      <c r="A449">
         <v>42</v>
       </c>
       <c r="B449" s="3" t="s">
@@ -11362,7 +11381,7 @@
       </c>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A450" s="9">
+      <c r="A450">
         <v>42</v>
       </c>
       <c r="B450" s="3" t="s">
@@ -11385,7 +11404,7 @@
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A451" s="9">
+      <c r="A451">
         <v>42</v>
       </c>
       <c r="B451" s="3" t="s">
@@ -11408,7 +11427,7 @@
       </c>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A452" s="9">
+      <c r="A452">
         <v>42</v>
       </c>
       <c r="B452" s="3" t="s">
@@ -11431,7 +11450,7 @@
       </c>
     </row>
     <row r="453" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A453" s="9">
+      <c r="A453">
         <v>42</v>
       </c>
       <c r="B453" s="3" t="s">
@@ -11610,7 +11629,7 @@
       </c>
     </row>
     <row r="462" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A462" s="9"/>
+      <c r="A462"/>
       <c r="B462" s="1" t="s">
         <v>37</v>
       </c>
@@ -11671,7 +11690,7 @@
       </c>
     </row>
     <row r="465" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A465" s="9"/>
+      <c r="A465"/>
       <c r="B465" s="1" t="s">
         <v>37</v>
       </c>
@@ -12024,7 +12043,7 @@
       </c>
     </row>
     <row r="483" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A483" s="9">
+      <c r="A483">
         <v>64</v>
       </c>
       <c r="B483" s="3" t="s">
@@ -12045,7 +12064,7 @@
       </c>
     </row>
     <row r="484" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A484" s="9">
+      <c r="A484">
         <v>64</v>
       </c>
       <c r="B484" s="3" t="s">
@@ -12168,7 +12187,7 @@
       </c>
     </row>
     <row r="490" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A490" s="9">
+      <c r="A490">
         <v>22</v>
       </c>
       <c r="B490" s="3" t="s">
@@ -12191,7 +12210,7 @@
       </c>
     </row>
     <row r="491" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A491" s="9">
+      <c r="A491">
         <v>22</v>
       </c>
       <c r="B491" s="3" t="s">
@@ -12214,7 +12233,7 @@
       </c>
     </row>
     <row r="492" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A492" s="9">
+      <c r="A492">
         <v>22</v>
       </c>
       <c r="B492" s="3" t="s">
@@ -12237,7 +12256,7 @@
       </c>
     </row>
     <row r="493" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A493" s="9">
+      <c r="A493">
         <v>22</v>
       </c>
       <c r="B493" s="3" t="s">
@@ -12260,7 +12279,7 @@
       </c>
     </row>
     <row r="494" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A494" s="9">
+      <c r="A494">
         <v>22</v>
       </c>
       <c r="B494" s="3" t="s">
@@ -12537,7 +12556,7 @@
       </c>
     </row>
     <row r="508" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A508" s="9"/>
+      <c r="A508"/>
       <c r="B508" s="1" t="s">
         <v>32</v>
       </c>
@@ -12656,7 +12675,7 @@
       </c>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A514" s="9">
+      <c r="A514">
         <v>50</v>
       </c>
       <c r="B514" s="3" t="s">
@@ -12677,7 +12696,7 @@
       </c>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A515" s="9">
+      <c r="A515">
         <v>50</v>
       </c>
       <c r="B515" s="3" t="s">
@@ -12700,7 +12719,7 @@
       </c>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A516" s="9">
+      <c r="A516">
         <v>50</v>
       </c>
       <c r="B516" s="3" t="s">
@@ -12723,7 +12742,7 @@
       </c>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A517" s="9">
+      <c r="A517">
         <v>50</v>
       </c>
       <c r="B517" s="3" t="s">
@@ -12746,7 +12765,7 @@
       </c>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A518" s="9">
+      <c r="A518">
         <v>50</v>
       </c>
       <c r="B518" s="3" t="s">
@@ -12769,7 +12788,7 @@
       </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A519" s="9">
+      <c r="A519">
         <v>50</v>
       </c>
       <c r="B519" s="3" t="s">
@@ -12792,7 +12811,7 @@
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A520" s="9">
+      <c r="A520">
         <v>50</v>
       </c>
       <c r="B520" s="3" t="s">
@@ -12815,7 +12834,7 @@
       </c>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A521" s="9">
+      <c r="A521">
         <v>50</v>
       </c>
       <c r="B521" s="3" t="s">
@@ -12876,7 +12895,7 @@
       </c>
     </row>
     <row r="524" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A524" s="9"/>
+      <c r="A524"/>
       <c r="B524" s="1" t="s">
         <v>48</v>
       </c>
@@ -13017,7 +13036,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A531" s="9">
+      <c r="A531">
         <v>181</v>
       </c>
       <c r="B531" s="3" t="s">
@@ -13038,7 +13057,7 @@
       </c>
     </row>
     <row r="532" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A532" s="9">
+      <c r="A532">
         <v>181</v>
       </c>
       <c r="B532" s="3" t="s">
@@ -13061,7 +13080,7 @@
       </c>
     </row>
     <row r="533" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A533" s="9">
+      <c r="A533">
         <v>181</v>
       </c>
       <c r="B533" s="3" t="s">
@@ -13084,7 +13103,7 @@
       </c>
     </row>
     <row r="534" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A534" s="9">
+      <c r="A534">
         <v>181</v>
       </c>
       <c r="B534" s="3" t="s">
@@ -13107,7 +13126,7 @@
       </c>
     </row>
     <row r="535" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A535" s="9">
+      <c r="A535">
         <v>181</v>
       </c>
       <c r="B535" s="3" t="s">
@@ -13130,7 +13149,7 @@
       </c>
     </row>
     <row r="536" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A536" s="9">
+      <c r="A536">
         <v>181</v>
       </c>
       <c r="B536" s="3" t="s">
@@ -13153,7 +13172,7 @@
       </c>
     </row>
     <row r="537" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A537" s="9">
+      <c r="A537">
         <v>181</v>
       </c>
       <c r="B537" s="3" t="s">
@@ -13270,7 +13289,7 @@
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A543" s="9">
+      <c r="A543">
         <v>8</v>
       </c>
       <c r="B543" s="3" t="s">
@@ -13293,7 +13312,7 @@
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A544" s="9">
+      <c r="A544">
         <v>8</v>
       </c>
       <c r="B544" s="3" t="s">
@@ -13316,7 +13335,7 @@
       </c>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A545" s="9">
+      <c r="A545">
         <v>8</v>
       </c>
       <c r="B545" s="3" t="s">
@@ -13339,7 +13358,7 @@
       </c>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A546" s="9">
+      <c r="A546">
         <v>8</v>
       </c>
       <c r="B546" s="3" t="s">
@@ -13362,7 +13381,7 @@
       </c>
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A547" s="9">
+      <c r="A547">
         <v>8</v>
       </c>
       <c r="B547" s="3" t="s">
@@ -13385,7 +13404,7 @@
       </c>
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A548" s="9">
+      <c r="A548">
         <v>8</v>
       </c>
       <c r="B548" s="3" t="s">
@@ -13464,7 +13483,7 @@
       </c>
     </row>
     <row r="552" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A552" s="9">
+      <c r="A552">
         <v>45</v>
       </c>
       <c r="B552" s="3" t="s">
@@ -13485,7 +13504,7 @@
       </c>
     </row>
     <row r="553" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A553" s="9">
+      <c r="A553">
         <v>45</v>
       </c>
       <c r="B553" s="3" t="s">
@@ -13508,7 +13527,7 @@
       </c>
     </row>
     <row r="554" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A554" s="9">
+      <c r="A554">
         <v>45</v>
       </c>
       <c r="B554" s="3" t="s">
@@ -13531,7 +13550,7 @@
       </c>
     </row>
     <row r="555" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A555" s="9">
+      <c r="A555">
         <v>45</v>
       </c>
       <c r="B555" s="3" t="s">
@@ -13552,7 +13571,7 @@
       </c>
     </row>
     <row r="556" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A556" s="9">
+      <c r="A556">
         <v>45</v>
       </c>
       <c r="B556" s="3" t="s">
@@ -13575,7 +13594,7 @@
       </c>
     </row>
     <row r="557" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A557" s="9">
+      <c r="A557">
         <v>45</v>
       </c>
       <c r="B557" s="3" t="s">
@@ -13638,7 +13657,7 @@
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A560" s="9">
+      <c r="A560">
         <v>40</v>
       </c>
       <c r="B560" s="3" t="s">
@@ -13661,7 +13680,7 @@
       </c>
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A561" s="9">
+      <c r="A561">
         <v>40</v>
       </c>
       <c r="B561" s="3" t="s">
@@ -13684,7 +13703,7 @@
       </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A562" s="9">
+      <c r="A562">
         <v>40</v>
       </c>
       <c r="B562" s="3" t="s">
@@ -13707,7 +13726,7 @@
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A563" s="9">
+      <c r="A563">
         <v>40</v>
       </c>
       <c r="B563" s="3" t="s">
@@ -13730,7 +13749,7 @@
       </c>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A564" s="9">
+      <c r="A564">
         <v>40</v>
       </c>
       <c r="B564" s="3" t="s">
@@ -13751,7 +13770,7 @@
       </c>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A565" s="9">
+      <c r="A565">
         <v>40</v>
       </c>
       <c r="B565" s="3" t="s">
@@ -13772,7 +13791,7 @@
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A566" s="9">
+      <c r="A566">
         <v>40</v>
       </c>
       <c r="B566" s="3" t="s">
@@ -14251,7 +14270,7 @@
       </c>
     </row>
     <row r="590" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A590" s="9"/>
+      <c r="A590"/>
       <c r="B590" s="1" t="s">
         <v>9</v>
       </c>
@@ -14270,7 +14289,7 @@
       </c>
     </row>
     <row r="591" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A591" s="9"/>
+      <c r="A591"/>
       <c r="B591" s="1" t="s">
         <v>14</v>
       </c>
@@ -14291,7 +14310,7 @@
       </c>
     </row>
     <row r="592" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A592" s="9"/>
+      <c r="A592"/>
       <c r="B592" s="1" t="s">
         <v>7</v>
       </c>
@@ -14312,7 +14331,7 @@
       </c>
     </row>
     <row r="593" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A593" s="9"/>
+      <c r="A593"/>
       <c r="B593" s="1" t="s">
         <v>7</v>
       </c>
@@ -14485,7 +14504,7 @@
       </c>
     </row>
     <row r="602" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A602" s="9">
+      <c r="A602">
         <v>74</v>
       </c>
       <c r="B602" s="3" t="s">
@@ -14508,7 +14527,7 @@
       </c>
     </row>
     <row r="603" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A603" s="9">
+      <c r="A603">
         <v>74</v>
       </c>
       <c r="B603" s="3" t="s">
@@ -14529,7 +14548,7 @@
       </c>
     </row>
     <row r="604" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A604" s="9">
+      <c r="A604">
         <v>74</v>
       </c>
       <c r="B604" s="3" t="s">
@@ -14552,7 +14571,7 @@
       </c>
     </row>
     <row r="605" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A605" s="9">
+      <c r="A605">
         <v>74</v>
       </c>
       <c r="B605" s="3" t="s">
@@ -14575,7 +14594,7 @@
       </c>
     </row>
     <row r="606" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A606" s="9">
+      <c r="A606">
         <v>74</v>
       </c>
       <c r="B606" s="3" t="s">
@@ -14598,7 +14617,7 @@
       </c>
     </row>
     <row r="607" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A607" s="9">
+      <c r="A607">
         <v>74</v>
       </c>
       <c r="B607" s="3" t="s">
@@ -14621,7 +14640,7 @@
       </c>
     </row>
     <row r="608" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A608" s="9">
+      <c r="A608">
         <v>74</v>
       </c>
       <c r="B608" s="3" t="s">
@@ -14878,7 +14897,7 @@
       </c>
     </row>
     <row r="621" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A621" s="9">
+      <c r="A621">
         <v>36</v>
       </c>
       <c r="B621" s="3" t="s">
@@ -14901,7 +14920,7 @@
       </c>
     </row>
     <row r="622" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A622" s="9">
+      <c r="A622">
         <v>36</v>
       </c>
       <c r="B622" s="3" t="s">
@@ -14922,7 +14941,7 @@
       </c>
     </row>
     <row r="623" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A623" s="9">
+      <c r="A623">
         <v>36</v>
       </c>
       <c r="B623" s="3" t="s">
@@ -15123,7 +15142,7 @@
       </c>
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A633" s="9">
+      <c r="A633">
         <v>13</v>
       </c>
       <c r="B633" s="3" t="s">
@@ -15146,7 +15165,7 @@
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A634" s="9">
+      <c r="A634">
         <v>13</v>
       </c>
       <c r="B634" s="3" t="s">
@@ -15169,7 +15188,7 @@
       </c>
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A635" s="9">
+      <c r="A635">
         <v>13</v>
       </c>
       <c r="B635" s="3" t="s">
@@ -15192,7 +15211,7 @@
       </c>
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A636" s="9">
+      <c r="A636">
         <v>13</v>
       </c>
       <c r="B636" s="3" t="s">
@@ -15215,7 +15234,7 @@
       </c>
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A637" s="9">
+      <c r="A637">
         <v>13</v>
       </c>
       <c r="B637" s="3" t="s">
@@ -15238,7 +15257,7 @@
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A638" s="9">
+      <c r="A638">
         <v>13</v>
       </c>
       <c r="B638" s="3" t="s">
@@ -15653,7 +15672,7 @@
       </c>
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A659" s="9">
+      <c r="A659">
         <v>9</v>
       </c>
       <c r="B659" s="3" t="s">
@@ -15674,7 +15693,7 @@
       </c>
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A660" s="9">
+      <c r="A660">
         <v>9</v>
       </c>
       <c r="B660" s="3" t="s">
@@ -15697,7 +15716,7 @@
       </c>
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A661" s="9">
+      <c r="A661">
         <v>9</v>
       </c>
       <c r="B661" s="3" t="s">
@@ -15720,7 +15739,7 @@
       </c>
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A662" s="9">
+      <c r="A662">
         <v>9</v>
       </c>
       <c r="B662" s="3" t="s">
@@ -15743,7 +15762,7 @@
       </c>
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A663" s="9">
+      <c r="A663">
         <v>9</v>
       </c>
       <c r="B663" s="3" t="s">
@@ -15766,7 +15785,7 @@
       </c>
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A664" s="9">
+      <c r="A664">
         <v>26</v>
       </c>
       <c r="B664" s="3" t="s">
@@ -15789,7 +15808,7 @@
       </c>
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A665" s="9">
+      <c r="A665">
         <v>26</v>
       </c>
       <c r="B665" s="3" t="s">
@@ -15890,7 +15909,7 @@
       </c>
     </row>
     <row r="670" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A670" s="9"/>
+      <c r="A670"/>
       <c r="B670" s="1" t="s">
         <v>10</v>
       </c>
@@ -16009,7 +16028,7 @@
       </c>
     </row>
     <row r="676" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A676" s="9"/>
+      <c r="A676"/>
       <c r="B676" s="1" t="s">
         <v>36</v>
       </c>
@@ -16030,7 +16049,7 @@
       </c>
     </row>
     <row r="677" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A677" s="9">
+      <c r="A677">
         <v>11</v>
       </c>
       <c r="B677" s="1" t="s">
@@ -16053,7 +16072,7 @@
       </c>
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A678" s="9">
+      <c r="A678">
         <v>11</v>
       </c>
       <c r="B678" s="1" t="s">
@@ -16076,7 +16095,7 @@
       </c>
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A679" s="9">
+      <c r="A679">
         <v>11</v>
       </c>
       <c r="B679" s="1" t="s">
@@ -16097,7 +16116,7 @@
       </c>
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A680" s="9">
+      <c r="A680">
         <v>11</v>
       </c>
       <c r="B680" s="1" t="s">
@@ -16118,7 +16137,7 @@
       </c>
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A681" s="9">
+      <c r="A681">
         <v>11</v>
       </c>
       <c r="B681" s="1" t="s">
@@ -16141,7 +16160,7 @@
       </c>
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A682" s="9">
+      <c r="A682">
         <v>11</v>
       </c>
       <c r="B682" s="1" t="s">
@@ -16164,7 +16183,7 @@
       </c>
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A683" s="9">
+      <c r="A683">
         <v>176</v>
       </c>
       <c r="B683" s="3" t="s">
@@ -16187,7 +16206,7 @@
       </c>
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A684" s="9">
+      <c r="A684">
         <v>176</v>
       </c>
       <c r="B684" s="3" t="s">
@@ -16386,7 +16405,7 @@
       </c>
     </row>
     <row r="694" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A694" s="9"/>
+      <c r="A694"/>
       <c r="B694" s="1" t="s">
         <v>34</v>
       </c>
@@ -16685,7 +16704,7 @@
       </c>
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A709" s="9">
+      <c r="A709">
         <v>7</v>
       </c>
       <c r="B709" s="3" t="s">
@@ -16708,7 +16727,7 @@
       </c>
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A710" s="9">
+      <c r="A710">
         <v>7</v>
       </c>
       <c r="B710" s="3" t="s">
@@ -16731,7 +16750,7 @@
       </c>
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A711" s="9">
+      <c r="A711">
         <v>7</v>
       </c>
       <c r="B711" s="3" t="s">
@@ -16792,7 +16811,7 @@
       </c>
     </row>
     <row r="714" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="9">
+      <c r="A714">
         <v>255</v>
       </c>
       <c r="B714" s="3" t="s">
@@ -16815,7 +16834,7 @@
       </c>
     </row>
     <row r="715" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A715" s="9">
+      <c r="A715">
         <v>255</v>
       </c>
       <c r="B715" s="3" t="s">
@@ -16838,7 +16857,7 @@
       </c>
     </row>
     <row r="716" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A716" s="9">
+      <c r="A716">
         <v>255</v>
       </c>
       <c r="B716" s="3" t="s">
@@ -16861,7 +16880,7 @@
       </c>
     </row>
     <row r="717" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A717" s="9">
+      <c r="A717">
         <v>255</v>
       </c>
       <c r="B717" s="3" t="s">
@@ -16884,7 +16903,7 @@
       </c>
     </row>
     <row r="718" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A718" s="9">
+      <c r="A718">
         <v>255</v>
       </c>
       <c r="B718" s="3" t="s">
@@ -16907,7 +16926,7 @@
       </c>
     </row>
     <row r="719" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A719" s="9">
+      <c r="A719">
         <v>255</v>
       </c>
       <c r="B719" s="3" t="s">
@@ -16930,7 +16949,7 @@
       </c>
     </row>
     <row r="720" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A720" s="9">
+      <c r="A720">
         <v>255</v>
       </c>
       <c r="B720" s="3" t="s">
@@ -16953,7 +16972,7 @@
       </c>
     </row>
     <row r="721" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A721" s="9">
+      <c r="A721">
         <v>255</v>
       </c>
       <c r="B721" s="3" t="s">
@@ -17074,7 +17093,7 @@
       </c>
     </row>
     <row r="727" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A727" s="9">
+      <c r="A727">
         <v>54</v>
       </c>
       <c r="B727" s="3" t="s">
@@ -17095,7 +17114,7 @@
       </c>
     </row>
     <row r="728" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A728" s="9">
+      <c r="A728">
         <v>54</v>
       </c>
       <c r="B728" s="3" t="s">
@@ -17118,7 +17137,7 @@
       </c>
     </row>
     <row r="729" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A729" s="9">
+      <c r="A729">
         <v>54</v>
       </c>
       <c r="B729" s="3" t="s">
@@ -17141,7 +17160,7 @@
       </c>
     </row>
     <row r="730" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A730" s="9">
+      <c r="A730">
         <v>54</v>
       </c>
       <c r="B730" s="3" t="s">
@@ -17164,7 +17183,7 @@
       </c>
     </row>
     <row r="731" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A731" s="9">
+      <c r="A731">
         <v>54</v>
       </c>
       <c r="B731" s="3" t="s">
@@ -17187,7 +17206,7 @@
       </c>
     </row>
     <row r="732" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A732" s="9">
+      <c r="A732">
         <v>54</v>
       </c>
       <c r="B732" s="3" t="s">
@@ -17230,7 +17249,7 @@
       </c>
     </row>
     <row r="734" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A734" s="9"/>
+      <c r="A734"/>
       <c r="B734" s="1" t="s">
         <v>48</v>
       </c>
@@ -17465,7 +17484,7 @@
       </c>
     </row>
     <row r="746" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A746" s="9">
+      <c r="A746">
         <v>65</v>
       </c>
       <c r="B746" s="3" t="s">
@@ -17488,7 +17507,7 @@
       </c>
     </row>
     <row r="747" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A747" s="9">
+      <c r="A747">
         <v>65</v>
       </c>
       <c r="B747" s="3" t="s">
@@ -17509,7 +17528,7 @@
       </c>
     </row>
     <row r="748" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A748" s="9">
+      <c r="A748">
         <v>65</v>
       </c>
       <c r="B748" s="3" t="s">
@@ -17532,7 +17551,7 @@
       </c>
     </row>
     <row r="749" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A749" s="9">
+      <c r="A749">
         <v>65</v>
       </c>
       <c r="B749" s="3" t="s">
@@ -17555,7 +17574,7 @@
       </c>
     </row>
     <row r="750" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A750" s="9">
+      <c r="A750">
         <v>65</v>
       </c>
       <c r="B750" s="3" t="s">
@@ -17578,7 +17597,7 @@
       </c>
     </row>
     <row r="751" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A751" s="9">
+      <c r="A751">
         <v>53</v>
       </c>
       <c r="B751" s="3" t="s">
@@ -17601,7 +17620,7 @@
       </c>
     </row>
     <row r="752" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A752" s="9">
+      <c r="A752">
         <v>53</v>
       </c>
       <c r="B752" s="3" t="s">
@@ -17624,7 +17643,7 @@
       </c>
     </row>
     <row r="753" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A753" s="9">
+      <c r="A753">
         <v>53</v>
       </c>
       <c r="B753" s="3" t="s">
@@ -17647,7 +17666,7 @@
       </c>
     </row>
     <row r="754" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A754" s="9">
+      <c r="A754">
         <v>53</v>
       </c>
       <c r="B754" s="3" t="s">
@@ -17726,7 +17745,7 @@
       </c>
     </row>
     <row r="758" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A758" s="9"/>
+      <c r="A758"/>
       <c r="B758" s="1" t="s">
         <v>24</v>
       </c>
@@ -17785,7 +17804,7 @@
       </c>
     </row>
     <row r="761" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A761" s="9"/>
+      <c r="A761"/>
       <c r="B761" s="1" t="s">
         <v>18</v>
       </c>
@@ -17824,7 +17843,7 @@
       </c>
     </row>
     <row r="763" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A763" s="9">
+      <c r="A763">
         <v>1</v>
       </c>
       <c r="B763" s="3" t="s">
@@ -17847,7 +17866,7 @@
       </c>
     </row>
     <row r="764" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A764" s="9">
+      <c r="A764">
         <v>1</v>
       </c>
       <c r="B764" s="3" t="s">
@@ -17870,7 +17889,7 @@
       </c>
     </row>
     <row r="765" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A765" s="9">
+      <c r="A765">
         <v>1</v>
       </c>
       <c r="B765" s="3" t="s">
@@ -18185,7 +18204,7 @@
       </c>
     </row>
     <row r="781" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A781" s="9"/>
+      <c r="A781"/>
       <c r="B781" s="1" t="s">
         <v>25</v>
       </c>
@@ -18266,7 +18285,7 @@
       </c>
     </row>
     <row r="785" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A785" s="9"/>
+      <c r="A785"/>
       <c r="B785" s="1" t="s">
         <v>36</v>
       </c>
@@ -18381,7 +18400,7 @@
       </c>
     </row>
     <row r="791" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A791" s="9"/>
+      <c r="A791"/>
       <c r="B791" s="1" t="s">
         <v>37</v>
       </c>
@@ -18842,7 +18861,7 @@
       </c>
     </row>
     <row r="814" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A814" s="9">
+      <c r="A814">
         <v>1</v>
       </c>
       <c r="B814" s="1" t="s">
@@ -18983,7 +19002,7 @@
       </c>
     </row>
     <row r="821" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A821" s="9">
+      <c r="A821">
         <v>28</v>
       </c>
       <c r="B821" s="3" t="s">
@@ -19004,7 +19023,7 @@
       </c>
     </row>
     <row r="822" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A822" s="9">
+      <c r="A822">
         <v>28</v>
       </c>
       <c r="B822" s="3" t="s">
@@ -19027,7 +19046,7 @@
       </c>
     </row>
     <row r="823" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A823" s="9">
+      <c r="A823">
         <v>28</v>
       </c>
       <c r="B823" s="3" t="s">
@@ -19050,7 +19069,7 @@
       </c>
     </row>
     <row r="824" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A824" s="9">
+      <c r="A824">
         <v>28</v>
       </c>
       <c r="B824" s="3" t="s">
@@ -19071,7 +19090,7 @@
       </c>
     </row>
     <row r="825" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A825" s="9">
+      <c r="A825">
         <v>14</v>
       </c>
       <c r="B825" s="3" t="s">
@@ -19192,7 +19211,7 @@
       </c>
     </row>
     <row r="831" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A831" s="9">
+      <c r="A831">
         <v>133</v>
       </c>
       <c r="B831" s="3" t="s">
@@ -19215,7 +19234,7 @@
       </c>
     </row>
     <row r="832" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A832" s="9">
+      <c r="A832">
         <v>133</v>
       </c>
       <c r="B832" s="3" t="s">
@@ -19238,7 +19257,7 @@
       </c>
     </row>
     <row r="833" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A833" s="9">
+      <c r="A833">
         <v>133</v>
       </c>
       <c r="B833" s="3" t="s">
@@ -19261,7 +19280,7 @@
       </c>
     </row>
     <row r="834" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A834" s="9">
+      <c r="A834">
         <v>133</v>
       </c>
       <c r="B834" s="3" t="s">
@@ -19282,7 +19301,7 @@
       </c>
     </row>
     <row r="835" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A835" s="9">
+      <c r="A835">
         <v>133</v>
       </c>
       <c r="B835" s="3" t="s">
@@ -19383,7 +19402,7 @@
       </c>
     </row>
     <row r="840" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A840" s="9"/>
+      <c r="A840"/>
       <c r="B840" s="1" t="s">
         <v>38</v>
       </c>
@@ -19404,7 +19423,7 @@
       </c>
     </row>
     <row r="841" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A841" s="9"/>
+      <c r="A841"/>
       <c r="B841" s="1" t="s">
         <v>24</v>
       </c>
@@ -19501,7 +19520,7 @@
       </c>
     </row>
     <row r="846" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A846" s="9">
+      <c r="A846">
         <v>17</v>
       </c>
       <c r="B846" s="3" t="s">
@@ -19522,7 +19541,7 @@
       </c>
     </row>
     <row r="847" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A847" s="9">
+      <c r="A847">
         <v>24</v>
       </c>
       <c r="B847" s="3" t="s">
@@ -19545,7 +19564,7 @@
       </c>
     </row>
     <row r="848" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A848" s="9">
+      <c r="A848">
         <v>24</v>
       </c>
       <c r="B848" s="3" t="s">
@@ -19568,7 +19587,7 @@
       </c>
     </row>
     <row r="849" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A849" s="9">
+      <c r="A849">
         <v>24</v>
       </c>
       <c r="B849" s="3" t="s">
@@ -19591,7 +19610,7 @@
       </c>
     </row>
     <row r="850" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A850" s="9">
+      <c r="A850">
         <v>24</v>
       </c>
       <c r="B850" s="3" t="s">
@@ -19808,7 +19827,7 @@
       </c>
     </row>
     <row r="861" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A861" s="9"/>
+      <c r="A861"/>
       <c r="B861" s="1" t="s">
         <v>36</v>
       </c>
@@ -19867,7 +19886,7 @@
       </c>
     </row>
     <row r="864" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A864" s="9"/>
+      <c r="A864"/>
       <c r="B864" s="1" t="s">
         <v>37</v>
       </c>
@@ -20066,7 +20085,7 @@
       </c>
     </row>
     <row r="874" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A874" s="9"/>
+      <c r="A874"/>
       <c r="B874" s="1" t="s">
         <v>16</v>
       </c>
@@ -20597,7 +20616,7 @@
       </c>
     </row>
     <row r="901" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A901" s="9">
+      <c r="A901">
         <v>27</v>
       </c>
       <c r="B901" s="3" t="s">
@@ -20620,7 +20639,7 @@
       </c>
     </row>
     <row r="902" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A902" s="9">
+      <c r="A902">
         <v>27</v>
       </c>
       <c r="B902" s="3" t="s">
@@ -20643,7 +20662,7 @@
       </c>
     </row>
     <row r="903" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A903" s="9">
+      <c r="A903">
         <v>27</v>
       </c>
       <c r="B903" s="3" t="s">
@@ -20666,7 +20685,7 @@
       </c>
     </row>
     <row r="904" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A904" s="9">
+      <c r="A904">
         <v>27</v>
       </c>
       <c r="B904" s="3" t="s">
@@ -20689,7 +20708,7 @@
       </c>
     </row>
     <row r="905" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A905" s="9">
+      <c r="A905">
         <v>27</v>
       </c>
       <c r="B905" s="3" t="s">
@@ -20712,7 +20731,7 @@
       </c>
     </row>
     <row r="906" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A906" s="9">
+      <c r="A906">
         <v>27</v>
       </c>
       <c r="B906" s="3" t="s">
@@ -20735,7 +20754,7 @@
       </c>
     </row>
     <row r="907" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A907" s="9">
+      <c r="A907">
         <v>27</v>
       </c>
       <c r="B907" s="3" t="s">
@@ -20758,7 +20777,7 @@
       </c>
     </row>
     <row r="908" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A908" s="9">
+      <c r="A908">
         <v>27</v>
       </c>
       <c r="B908" s="3" t="s">
@@ -20817,7 +20836,7 @@
       </c>
     </row>
     <row r="911" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A911" s="9">
+      <c r="A911">
         <v>66</v>
       </c>
       <c r="B911" s="3" t="s">
@@ -20840,7 +20859,7 @@
       </c>
     </row>
     <row r="912" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A912" s="9">
+      <c r="A912">
         <v>66</v>
       </c>
       <c r="B912" s="3" t="s">
@@ -20863,7 +20882,7 @@
       </c>
     </row>
     <row r="913" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A913" s="9">
+      <c r="A913">
         <v>66</v>
       </c>
       <c r="B913" s="3" t="s">
@@ -20886,7 +20905,7 @@
       </c>
     </row>
     <row r="914" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A914" s="9">
+      <c r="A914">
         <v>66</v>
       </c>
       <c r="B914" s="3" t="s">
@@ -20909,7 +20928,7 @@
       </c>
     </row>
     <row r="915" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A915" s="9">
+      <c r="A915">
         <v>66</v>
       </c>
       <c r="B915" s="3" t="s">
@@ -20932,7 +20951,7 @@
       </c>
     </row>
     <row r="916" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A916" s="9">
+      <c r="A916">
         <v>66</v>
       </c>
       <c r="B916" s="3" t="s">
@@ -20973,7 +20992,7 @@
       </c>
     </row>
     <row r="918" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A918" s="9"/>
+      <c r="A918"/>
       <c r="B918" s="1" t="s">
         <v>45</v>
       </c>
@@ -21034,7 +21053,7 @@
       </c>
     </row>
     <row r="921" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A921" s="9"/>
+      <c r="A921"/>
       <c r="B921" s="1" t="s">
         <v>45</v>
       </c>
@@ -21151,7 +21170,7 @@
       </c>
     </row>
     <row r="927" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A927" s="9"/>
+      <c r="A927"/>
       <c r="B927" s="1" t="s">
         <v>20</v>
       </c>
@@ -21228,7 +21247,7 @@
       </c>
     </row>
     <row r="931" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A931" s="9"/>
+      <c r="A931"/>
       <c r="B931" s="1" t="s">
         <v>23</v>
       </c>
@@ -21247,7 +21266,7 @@
       </c>
     </row>
     <row r="932" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A932" s="9"/>
+      <c r="A932"/>
       <c r="B932" s="1" t="s">
         <v>12</v>
       </c>
@@ -21266,7 +21285,7 @@
       </c>
     </row>
     <row r="933" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A933" s="9"/>
+      <c r="A933"/>
       <c r="B933" s="1" t="s">
         <v>7</v>
       </c>
@@ -21287,7 +21306,7 @@
       </c>
     </row>
     <row r="934" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A934" s="9"/>
+      <c r="A934"/>
       <c r="B934" s="1" t="s">
         <v>38</v>
       </c>
@@ -21308,7 +21327,7 @@
       </c>
     </row>
     <row r="935" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A935" s="9"/>
+      <c r="A935"/>
       <c r="B935" s="1" t="s">
         <v>39</v>
       </c>
@@ -21329,7 +21348,7 @@
       </c>
     </row>
     <row r="936" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A936" s="9"/>
+      <c r="A936"/>
       <c r="B936" s="1" t="s">
         <v>29</v>
       </c>
@@ -21350,7 +21369,7 @@
       </c>
     </row>
     <row r="937" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A937" s="9"/>
+      <c r="A937"/>
       <c r="B937" s="1" t="s">
         <v>45</v>
       </c>
@@ -21371,7 +21390,7 @@
       </c>
     </row>
     <row r="938" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A938" s="9"/>
+      <c r="A938"/>
       <c r="B938" s="1" t="s">
         <v>45</v>
       </c>
@@ -21548,7 +21567,7 @@
       </c>
     </row>
     <row r="947" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A947" s="9"/>
+      <c r="A947"/>
       <c r="B947" s="1" t="s">
         <v>45</v>
       </c>
@@ -21609,7 +21628,7 @@
       </c>
     </row>
     <row r="950" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A950" s="9"/>
+      <c r="A950"/>
       <c r="B950" s="1" t="s">
         <v>29</v>
       </c>
@@ -21630,7 +21649,7 @@
       </c>
     </row>
     <row r="951" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A951" s="9"/>
+      <c r="A951"/>
       <c r="B951" s="1" t="s">
         <v>30</v>
       </c>
@@ -21651,7 +21670,7 @@
       </c>
     </row>
     <row r="952" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A952" s="9"/>
+      <c r="A952"/>
       <c r="B952" s="1" t="s">
         <v>46</v>
       </c>
@@ -21670,7 +21689,7 @@
       </c>
     </row>
     <row r="953" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A953" s="9"/>
+      <c r="A953"/>
       <c r="B953" s="1" t="s">
         <v>48</v>
       </c>
@@ -21691,7 +21710,7 @@
       </c>
     </row>
     <row r="954" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A954" s="9"/>
+      <c r="A954"/>
       <c r="B954" s="1" t="s">
         <v>48</v>
       </c>
@@ -21712,7 +21731,7 @@
       </c>
     </row>
     <row r="955" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A955" s="9"/>
+      <c r="A955"/>
       <c r="B955" s="1" t="s">
         <v>28</v>
       </c>
@@ -21753,7 +21772,7 @@
       </c>
     </row>
     <row r="957" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A957" s="9"/>
+      <c r="A957"/>
       <c r="B957" s="1" t="s">
         <v>37</v>
       </c>
@@ -21774,7 +21793,7 @@
       </c>
     </row>
     <row r="958" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A958" s="9"/>
+      <c r="A958"/>
       <c r="B958" s="1" t="s">
         <v>12</v>
       </c>
@@ -21793,7 +21812,7 @@
       </c>
     </row>
     <row r="959" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A959" s="9"/>
+      <c r="A959"/>
       <c r="B959" s="1" t="s">
         <v>48</v>
       </c>
@@ -21834,7 +21853,7 @@
       </c>
     </row>
     <row r="961" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A961" s="9"/>
+      <c r="A961"/>
       <c r="B961" s="1" t="s">
         <v>31</v>
       </c>
@@ -22171,7 +22190,7 @@
       </c>
     </row>
     <row r="978" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A978" s="9"/>
+      <c r="A978"/>
       <c r="B978" s="1" t="s">
         <v>37</v>
       </c>
@@ -22212,7 +22231,7 @@
       </c>
     </row>
     <row r="980" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A980" s="9"/>
+      <c r="A980"/>
       <c r="B980" s="1" t="s">
         <v>7</v>
       </c>
@@ -22253,7 +22272,7 @@
       </c>
     </row>
     <row r="982" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A982" s="9"/>
+      <c r="A982"/>
       <c r="B982" s="1" t="s">
         <v>7</v>
       </c>
@@ -22274,7 +22293,7 @@
       </c>
     </row>
     <row r="983" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A983" s="9"/>
+      <c r="A983"/>
       <c r="B983" s="1" t="s">
         <v>48</v>
       </c>
@@ -22295,7 +22314,7 @@
       </c>
     </row>
     <row r="984" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A984" s="9"/>
+      <c r="A984"/>
       <c r="B984" s="1" t="s">
         <v>27</v>
       </c>
@@ -22334,7 +22353,7 @@
       </c>
     </row>
     <row r="986" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A986" s="9">
+      <c r="A986">
         <v>67</v>
       </c>
       <c r="B986" s="3" t="s">
@@ -22357,7 +22376,7 @@
       </c>
     </row>
     <row r="987" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A987" s="9">
+      <c r="A987">
         <v>67</v>
       </c>
       <c r="B987" s="3" t="s">
@@ -22380,7 +22399,7 @@
       </c>
     </row>
     <row r="988" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A988" s="9">
+      <c r="A988">
         <v>67</v>
       </c>
       <c r="B988" s="3" t="s">
@@ -22403,7 +22422,7 @@
       </c>
     </row>
     <row r="989" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A989" s="9">
+      <c r="A989">
         <v>67</v>
       </c>
       <c r="B989" s="3" t="s">
@@ -22602,7 +22621,7 @@
       </c>
     </row>
     <row r="999" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A999" s="9">
+      <c r="A999">
         <v>29</v>
       </c>
       <c r="B999" s="3" t="s">
@@ -22623,7 +22642,7 @@
       </c>
     </row>
     <row r="1000" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1000" s="9">
+      <c r="A1000">
         <v>29</v>
       </c>
       <c r="B1000" s="3" t="s">
@@ -22646,7 +22665,7 @@
       </c>
     </row>
     <row r="1001" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1001" s="9">
+      <c r="A1001">
         <v>29</v>
       </c>
       <c r="B1001" s="3" t="s">
@@ -22669,7 +22688,7 @@
       </c>
     </row>
     <row r="1002" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1002" s="9">
+      <c r="A1002">
         <v>29</v>
       </c>
       <c r="B1002" s="3" t="s">
@@ -22692,7 +22711,7 @@
       </c>
     </row>
     <row r="1003" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1003" s="9">
+      <c r="A1003">
         <v>29</v>
       </c>
       <c r="B1003" s="3" t="s">
@@ -22715,7 +22734,7 @@
       </c>
     </row>
     <row r="1004" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1004" s="9">
+      <c r="A1004">
         <v>29</v>
       </c>
       <c r="B1004" s="3" t="s">
@@ -22738,7 +22757,7 @@
       </c>
     </row>
     <row r="1005" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1005" s="9">
+      <c r="A1005">
         <v>29</v>
       </c>
       <c r="B1005" s="3" t="s">
@@ -22761,7 +22780,7 @@
       </c>
     </row>
     <row r="1006" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1006" s="9">
+      <c r="A1006">
         <v>29</v>
       </c>
       <c r="B1006" s="3" t="s">
@@ -22784,7 +22803,7 @@
       </c>
     </row>
     <row r="1007" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1007" s="9">
+      <c r="A1007">
         <v>29</v>
       </c>
       <c r="B1007" s="3" t="s">
@@ -22925,7 +22944,7 @@
       </c>
     </row>
     <row r="1014" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1014" s="9">
+      <c r="A1014">
         <v>18</v>
       </c>
       <c r="B1014" s="1" t="s">
@@ -23006,7 +23025,7 @@
       </c>
     </row>
     <row r="1018" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1018" s="9">
+      <c r="A1018">
         <v>18</v>
       </c>
       <c r="B1018" s="3" t="s">
@@ -23029,7 +23048,7 @@
       </c>
     </row>
     <row r="1019" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1019" s="9">
+      <c r="A1019">
         <v>18</v>
       </c>
       <c r="B1019" s="3" t="s">
@@ -23052,7 +23071,7 @@
       </c>
     </row>
     <row r="1020" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1020" s="9">
+      <c r="A1020">
         <v>18</v>
       </c>
       <c r="B1020" s="3" t="s">
@@ -23075,7 +23094,7 @@
       </c>
     </row>
     <row r="1021" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1021" s="9">
+      <c r="A1021">
         <v>18</v>
       </c>
       <c r="B1021" s="3" t="s">
@@ -23098,7 +23117,7 @@
       </c>
     </row>
     <row r="1022" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1022" s="9">
+      <c r="A1022">
         <v>18</v>
       </c>
       <c r="B1022" s="3" t="s">
@@ -23121,7 +23140,7 @@
       </c>
     </row>
     <row r="1023" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1023" s="9">
+      <c r="A1023">
         <v>18</v>
       </c>
       <c r="B1023" s="3" t="s">
@@ -23144,7 +23163,7 @@
       </c>
     </row>
     <row r="1024" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1024" s="9">
+      <c r="A1024">
         <v>18</v>
       </c>
       <c r="B1024" s="1" t="s">
@@ -23263,7 +23282,7 @@
       </c>
     </row>
     <row r="1030" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1030" s="9"/>
+      <c r="A1030"/>
       <c r="B1030" s="1" t="s">
         <v>13</v>
       </c>
@@ -23304,7 +23323,7 @@
       </c>
     </row>
     <row r="1032" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1032" s="9">
+      <c r="A1032">
         <v>30</v>
       </c>
       <c r="B1032" s="3" t="s">
@@ -23661,7 +23680,7 @@
       </c>
     </row>
     <row r="1050" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1050" s="9"/>
+      <c r="A1050"/>
       <c r="B1050" s="1" t="s">
         <v>7</v>
       </c>
@@ -23682,7 +23701,7 @@
       </c>
     </row>
     <row r="1051" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1051" s="9"/>
+      <c r="A1051"/>
       <c r="B1051" s="1" t="s">
         <v>7</v>
       </c>
@@ -23743,7 +23762,7 @@
       </c>
     </row>
     <row r="1054" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1054" s="9"/>
+      <c r="A1054"/>
       <c r="B1054" s="3" t="s">
         <v>46</v>
       </c>
@@ -23762,7 +23781,7 @@
       </c>
     </row>
     <row r="1055" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1055" s="9"/>
+      <c r="A1055"/>
       <c r="B1055" s="3" t="s">
         <v>45</v>
       </c>
@@ -23961,7 +23980,7 @@
       </c>
     </row>
     <row r="1065" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1065" s="9"/>
+      <c r="A1065"/>
       <c r="B1065" s="1" t="s">
         <v>36</v>
       </c>
@@ -24022,7 +24041,7 @@
       </c>
     </row>
     <row r="1068" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1068" s="9"/>
+      <c r="A1068"/>
       <c r="B1068" s="1" t="s">
         <v>7</v>
       </c>
@@ -24043,7 +24062,7 @@
       </c>
     </row>
     <row r="1069" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1069" s="9"/>
+      <c r="A1069"/>
       <c r="B1069" s="1" t="s">
         <v>7</v>
       </c>
@@ -24064,7 +24083,7 @@
       </c>
     </row>
     <row r="1070" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1070" s="9"/>
+      <c r="A1070"/>
       <c r="B1070" s="1" t="s">
         <v>7</v>
       </c>
@@ -24143,7 +24162,7 @@
       </c>
     </row>
     <row r="1074" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1074" s="9"/>
+      <c r="A1074"/>
       <c r="B1074" s="1" t="s">
         <v>45</v>
       </c>
@@ -24244,7 +24263,7 @@
       </c>
     </row>
     <row r="1079" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1079" s="9"/>
+      <c r="A1079"/>
       <c r="B1079" s="1" t="s">
         <v>45</v>
       </c>
@@ -24345,7 +24364,7 @@
       </c>
     </row>
     <row r="1084" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1084" s="9"/>
+      <c r="A1084"/>
       <c r="B1084" s="1" t="s">
         <v>42</v>
       </c>
@@ -24366,7 +24385,7 @@
       </c>
     </row>
     <row r="1085" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1085" s="9"/>
+      <c r="A1085"/>
       <c r="B1085" s="1" t="s">
         <v>43</v>
       </c>
@@ -24385,7 +24404,7 @@
       </c>
     </row>
     <row r="1086" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1086" s="9"/>
+      <c r="A1086"/>
       <c r="B1086" s="1" t="s">
         <v>31</v>
       </c>
@@ -24426,7 +24445,7 @@
       </c>
     </row>
     <row r="1088" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1088" s="9"/>
+      <c r="A1088"/>
       <c r="B1088" s="1" t="s">
         <v>45</v>
       </c>
@@ -24567,7 +24586,7 @@
       </c>
     </row>
     <row r="1095" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1095" s="9">
+      <c r="A1095">
         <v>30</v>
       </c>
       <c r="B1095" s="3" t="s">
@@ -24590,7 +24609,7 @@
       </c>
     </row>
     <row r="1096" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1096" s="9">
+      <c r="A1096">
         <v>30</v>
       </c>
       <c r="B1096" s="3" t="s">
@@ -24613,7 +24632,7 @@
       </c>
     </row>
     <row r="1097" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1097" s="9">
+      <c r="A1097">
         <v>30</v>
       </c>
       <c r="B1097" s="3" t="s">
@@ -24634,7 +24653,7 @@
       </c>
     </row>
     <row r="1098" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1098" s="9">
+      <c r="A1098">
         <v>30</v>
       </c>
       <c r="B1098" s="3" t="s">
@@ -24657,7 +24676,7 @@
       </c>
     </row>
     <row r="1099" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1099" s="9">
+      <c r="A1099">
         <v>30</v>
       </c>
       <c r="B1099" s="3" t="s">
@@ -24680,7 +24699,7 @@
       </c>
     </row>
     <row r="1100" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1100" s="9">
+      <c r="A1100">
         <v>30</v>
       </c>
       <c r="B1100" s="3" t="s">
@@ -24703,7 +24722,7 @@
       </c>
     </row>
     <row r="1101" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1101" s="9">
+      <c r="A1101">
         <v>30</v>
       </c>
       <c r="B1101" s="3" t="s">
@@ -24726,7 +24745,7 @@
       </c>
     </row>
     <row r="1102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1102" s="9">
+      <c r="A1102">
         <v>30</v>
       </c>
       <c r="B1102" s="3" t="s">
@@ -25193,7 +25212,7 @@
       </c>
     </row>
     <row r="1126" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1126" s="9">
+      <c r="A1126">
         <v>69</v>
       </c>
       <c r="B1126" s="3" t="s">
@@ -25216,7 +25235,7 @@
       </c>
     </row>
     <row r="1127" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1127" s="9">
+      <c r="A1127">
         <v>69</v>
       </c>
       <c r="B1127" s="3" t="s">
@@ -25239,7 +25258,7 @@
       </c>
     </row>
     <row r="1128" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1128" s="9">
+      <c r="A1128">
         <v>69</v>
       </c>
       <c r="B1128" s="3" t="s">
@@ -25262,7 +25281,7 @@
       </c>
     </row>
     <row r="1129" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1129" s="9">
+      <c r="A1129">
         <v>69</v>
       </c>
       <c r="B1129" s="3" t="s">
@@ -25303,7 +25322,7 @@
       </c>
     </row>
     <row r="1131" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1131" s="9"/>
+      <c r="A1131"/>
       <c r="B1131" s="1" t="s">
         <v>38</v>
       </c>
@@ -25638,7 +25657,7 @@
       </c>
     </row>
     <row r="1148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1148" s="9">
+      <c r="A1148">
         <v>32</v>
       </c>
       <c r="B1148" s="3" t="s">
@@ -25661,7 +25680,7 @@
       </c>
     </row>
     <row r="1149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1149" s="9">
+      <c r="A1149">
         <v>32</v>
       </c>
       <c r="B1149" s="3" t="s">
@@ -25682,7 +25701,7 @@
       </c>
     </row>
     <row r="1150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1150" s="9">
+      <c r="A1150">
         <v>32</v>
       </c>
       <c r="B1150" s="3" t="s">
@@ -25705,7 +25724,7 @@
       </c>
     </row>
     <row r="1151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1151" s="9">
+      <c r="A1151">
         <v>32</v>
       </c>
       <c r="B1151" s="3" t="s">
@@ -25728,7 +25747,7 @@
       </c>
     </row>
     <row r="1152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1152" s="9">
+      <c r="A1152">
         <v>32</v>
       </c>
       <c r="B1152" s="3" t="s">
@@ -25751,7 +25770,7 @@
       </c>
     </row>
     <row r="1153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1153" s="9">
+      <c r="A1153">
         <v>32</v>
       </c>
       <c r="B1153" s="3" t="s">
@@ -25774,7 +25793,7 @@
       </c>
     </row>
     <row r="1154" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1154" s="9">
+      <c r="A1154">
         <v>32</v>
       </c>
       <c r="B1154" s="3" t="s">
@@ -25797,7 +25816,7 @@
       </c>
     </row>
     <row r="1155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1155" s="9">
+      <c r="A1155">
         <v>32</v>
       </c>
       <c r="B1155" s="3" t="s">
@@ -26152,7 +26171,7 @@
       </c>
     </row>
     <row r="1173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1173" s="9">
+      <c r="A1173">
         <v>370</v>
       </c>
       <c r="B1173" s="3" t="s">
@@ -26175,7 +26194,7 @@
       </c>
     </row>
     <row r="1174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1174" s="9">
+      <c r="A1174">
         <v>38</v>
       </c>
       <c r="B1174" s="3" t="s">
@@ -26214,7 +26233,7 @@
       </c>
     </row>
     <row r="1176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1176" s="9">
+      <c r="A1176">
         <v>38</v>
       </c>
       <c r="B1176" s="3" t="s">
@@ -26315,7 +26334,7 @@
       </c>
     </row>
     <row r="1181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1181" s="9">
+      <c r="A1181">
         <v>38</v>
       </c>
       <c r="B1181" s="1" t="s">
@@ -26792,7 +26811,7 @@
       </c>
     </row>
     <row r="1205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1205" s="9">
+      <c r="A1205">
         <v>31</v>
       </c>
       <c r="B1205" s="3" t="s">
@@ -26815,7 +26834,7 @@
       </c>
     </row>
     <row r="1206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1206" s="9">
+      <c r="A1206">
         <v>31</v>
       </c>
       <c r="B1206" s="3" t="s">
@@ -26838,7 +26857,7 @@
       </c>
     </row>
     <row r="1207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1207" s="9">
+      <c r="A1207">
         <v>31</v>
       </c>
       <c r="B1207" s="3" t="s">
@@ -26861,7 +26880,7 @@
       </c>
     </row>
     <row r="1208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1208" s="9">
+      <c r="A1208">
         <v>31</v>
       </c>
       <c r="B1208" s="3" t="s">
@@ -27236,7 +27255,7 @@
       </c>
     </row>
     <row r="1227" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1227" s="9"/>
+      <c r="A1227"/>
       <c r="B1227" s="1" t="s">
         <v>41</v>
       </c>
@@ -27337,7 +27356,7 @@
       </c>
     </row>
     <row r="1232" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1232" s="9"/>
+      <c r="A1232"/>
       <c r="B1232" s="1" t="s">
         <v>41</v>
       </c>
@@ -27456,7 +27475,7 @@
       </c>
     </row>
     <row r="1238" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1238" s="9"/>
+      <c r="A1238"/>
       <c r="B1238" s="1" t="s">
         <v>42</v>
       </c>
@@ -27653,7 +27672,7 @@
       </c>
     </row>
     <row r="1248" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1248" s="9"/>
+      <c r="A1248"/>
       <c r="B1248" s="1" t="s">
         <v>28</v>
       </c>
@@ -27674,7 +27693,7 @@
       </c>
     </row>
     <row r="1249" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1249" s="9"/>
+      <c r="A1249"/>
       <c r="B1249" s="1" t="s">
         <v>42</v>
       </c>
@@ -27695,7 +27714,7 @@
       </c>
     </row>
     <row r="1250" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1250" s="9"/>
+      <c r="A1250"/>
       <c r="B1250" s="1" t="s">
         <v>42</v>
       </c>
@@ -27716,7 +27735,7 @@
       </c>
     </row>
     <row r="1251" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1251" s="9"/>
+      <c r="A1251"/>
       <c r="B1251" s="1" t="s">
         <v>40</v>
       </c>
@@ -27795,7 +27814,7 @@
       </c>
     </row>
     <row r="1255" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1255" s="9">
+      <c r="A1255">
         <v>43</v>
       </c>
       <c r="B1255" s="3" t="s">
@@ -27816,7 +27835,7 @@
       </c>
     </row>
     <row r="1256" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1256" s="9">
+      <c r="A1256">
         <v>43</v>
       </c>
       <c r="B1256" s="3" t="s">
@@ -27839,7 +27858,7 @@
       </c>
     </row>
     <row r="1257" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1257" s="9">
+      <c r="A1257">
         <v>43</v>
       </c>
       <c r="B1257" s="3" t="s">
@@ -27860,7 +27879,7 @@
       </c>
     </row>
     <row r="1258" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1258" s="9">
+      <c r="A1258">
         <v>43</v>
       </c>
       <c r="B1258" s="3" t="s">
@@ -27883,7 +27902,7 @@
       </c>
     </row>
     <row r="1259" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1259" s="9">
+      <c r="A1259">
         <v>43</v>
       </c>
       <c r="B1259" s="3" t="s">
@@ -27906,7 +27925,7 @@
       </c>
     </row>
     <row r="1260" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1260" s="9">
+      <c r="A1260">
         <v>43</v>
       </c>
       <c r="B1260" s="3" t="s">
@@ -27969,7 +27988,7 @@
       </c>
     </row>
     <row r="1263" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1263" s="9"/>
+      <c r="A1263"/>
       <c r="B1263" s="1" t="s">
         <v>17</v>
       </c>
@@ -28186,7 +28205,7 @@
       </c>
     </row>
     <row r="1274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1274" s="9">
+      <c r="A1274">
         <v>49</v>
       </c>
       <c r="B1274" s="3" t="s">
@@ -28209,7 +28228,7 @@
       </c>
     </row>
     <row r="1275" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1275" s="9">
+      <c r="A1275">
         <v>49</v>
       </c>
       <c r="B1275" s="3" t="s">
@@ -28232,7 +28251,7 @@
       </c>
     </row>
     <row r="1276" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1276" s="9">
+      <c r="A1276">
         <v>49</v>
       </c>
       <c r="B1276" s="3" t="s">
@@ -28253,7 +28272,7 @@
       </c>
     </row>
     <row r="1277" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1277" s="9">
+      <c r="A1277">
         <v>49</v>
       </c>
       <c r="B1277" s="3" t="s">
@@ -28276,7 +28295,7 @@
       </c>
     </row>
     <row r="1278" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1278" s="9">
+      <c r="A1278">
         <v>49</v>
       </c>
       <c r="B1278" s="3" t="s">
@@ -28299,7 +28318,7 @@
       </c>
     </row>
     <row r="1279" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1279" s="9">
+      <c r="A1279">
         <v>49</v>
       </c>
       <c r="B1279" s="3" t="s">
@@ -28360,7 +28379,7 @@
       </c>
     </row>
     <row r="1282" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1282" s="9"/>
+      <c r="A1282"/>
       <c r="B1282" s="1" t="s">
         <v>38</v>
       </c>
@@ -28579,7 +28598,7 @@
       </c>
     </row>
     <row r="1293" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1293" s="9"/>
+      <c r="A1293"/>
       <c r="B1293" s="1" t="s">
         <v>41</v>
       </c>
@@ -28676,7 +28695,7 @@
       </c>
     </row>
     <row r="1298" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1298" s="9"/>
+      <c r="A1298"/>
       <c r="B1298" s="1" t="s">
         <v>28</v>
       </c>
@@ -28855,7 +28874,7 @@
       </c>
     </row>
     <row r="1307" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1307" s="9"/>
+      <c r="A1307"/>
       <c r="B1307" s="1" t="s">
         <v>45</v>
       </c>
@@ -28914,7 +28933,7 @@
       </c>
     </row>
     <row r="1310" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1310" s="9">
+      <c r="A1310">
         <v>41</v>
       </c>
       <c r="B1310" s="3" t="s">
@@ -28937,7 +28956,7 @@
       </c>
     </row>
     <row r="1311" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1311" s="9">
+      <c r="A1311">
         <v>41</v>
       </c>
       <c r="B1311" s="3" t="s">
@@ -28960,7 +28979,7 @@
       </c>
     </row>
     <row r="1312" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1312" s="9">
+      <c r="A1312">
         <v>41</v>
       </c>
       <c r="B1312" s="3" t="s">
@@ -28983,7 +29002,7 @@
       </c>
     </row>
     <row r="1313" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1313" s="9">
+      <c r="A1313">
         <v>41</v>
       </c>
       <c r="B1313" s="3" t="s">
@@ -29006,7 +29025,7 @@
       </c>
     </row>
     <row r="1314" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1314" s="9">
+      <c r="A1314">
         <v>41</v>
       </c>
       <c r="B1314" s="3" t="s">
@@ -29029,7 +29048,7 @@
       </c>
     </row>
     <row r="1315" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1315" s="9">
+      <c r="A1315">
         <v>41</v>
       </c>
       <c r="B1315" s="3" t="s">
@@ -29050,7 +29069,7 @@
       </c>
     </row>
     <row r="1316" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1316" s="9"/>
+      <c r="A1316"/>
       <c r="B1316" s="1" t="s">
         <v>45</v>
       </c>
@@ -29349,7 +29368,7 @@
       </c>
     </row>
     <row r="1331" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1331" s="9"/>
+      <c r="A1331"/>
       <c r="B1331" s="1" t="s">
         <v>36</v>
       </c>
@@ -29430,7 +29449,7 @@
       </c>
     </row>
     <row r="1335" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1335" s="9">
+      <c r="A1335">
         <v>19</v>
       </c>
       <c r="B1335" s="3" t="s">
@@ -29453,7 +29472,7 @@
       </c>
     </row>
     <row r="1336" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1336" s="9">
+      <c r="A1336">
         <v>19</v>
       </c>
       <c r="B1336" s="3" t="s">
@@ -29476,7 +29495,7 @@
       </c>
     </row>
     <row r="1337" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1337" s="9">
+      <c r="A1337">
         <v>19</v>
       </c>
       <c r="B1337" s="3" t="s">
@@ -29497,7 +29516,7 @@
       </c>
     </row>
     <row r="1338" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1338" s="9">
+      <c r="A1338">
         <v>19</v>
       </c>
       <c r="B1338" s="3" t="s">
@@ -29520,7 +29539,7 @@
       </c>
     </row>
     <row r="1339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1339" s="9">
+      <c r="A1339">
         <v>19</v>
       </c>
       <c r="B1339" s="3" t="s">
@@ -29543,7 +29562,7 @@
       </c>
     </row>
     <row r="1340" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1340" s="9">
+      <c r="A1340">
         <v>19</v>
       </c>
       <c r="B1340" s="3" t="s">
@@ -29566,7 +29585,7 @@
       </c>
     </row>
     <row r="1341" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1341" s="9">
+      <c r="A1341">
         <v>19</v>
       </c>
       <c r="B1341" s="3" t="s">
@@ -29587,7 +29606,7 @@
       </c>
     </row>
     <row r="1342" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1342" s="9">
+      <c r="A1342">
         <v>19</v>
       </c>
       <c r="B1342" s="3" t="s">
@@ -29670,7 +29689,7 @@
       </c>
     </row>
     <row r="1346" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1346" s="9"/>
+      <c r="A1346"/>
       <c r="B1346" s="1" t="s">
         <v>45</v>
       </c>
@@ -29943,7 +29962,7 @@
       </c>
     </row>
     <row r="1360" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1360" s="9"/>
+      <c r="A1360"/>
       <c r="B1360" s="1" t="s">
         <v>41</v>
       </c>
@@ -29964,7 +29983,7 @@
       </c>
     </row>
     <row r="1361" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1361" s="9"/>
+      <c r="A1361"/>
       <c r="B1361" s="1" t="s">
         <v>43</v>
       </c>
@@ -30181,7 +30200,7 @@
       </c>
     </row>
     <row r="1372" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1372" s="9">
+      <c r="A1372">
         <v>37</v>
       </c>
       <c r="B1372" s="3" t="s">
@@ -30202,7 +30221,7 @@
       </c>
     </row>
     <row r="1373" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1373" s="9">
+      <c r="A1373">
         <v>37</v>
       </c>
       <c r="B1373" s="3" t="s">
@@ -30225,7 +30244,7 @@
       </c>
     </row>
     <row r="1374" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1374" s="9">
+      <c r="A1374">
         <v>37</v>
       </c>
       <c r="B1374" s="3" t="s">
@@ -30248,7 +30267,7 @@
       </c>
     </row>
     <row r="1375" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1375" s="9">
+      <c r="A1375">
         <v>37</v>
       </c>
       <c r="B1375" s="3" t="s">
@@ -30389,7 +30408,7 @@
       </c>
     </row>
     <row r="1382" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1382" s="9">
+      <c r="A1382">
         <v>70</v>
       </c>
       <c r="B1382" s="3" t="s">
@@ -30412,7 +30431,7 @@
       </c>
     </row>
     <row r="1383" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1383" s="9">
+      <c r="A1383">
         <v>70</v>
       </c>
       <c r="B1383" s="3" t="s">
@@ -30435,7 +30454,7 @@
       </c>
     </row>
     <row r="1384" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1384" s="9">
+      <c r="A1384">
         <v>70</v>
       </c>
       <c r="B1384" s="3" t="s">
@@ -30458,7 +30477,7 @@
       </c>
     </row>
     <row r="1385" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1385" s="9">
+      <c r="A1385">
         <v>70</v>
       </c>
       <c r="B1385" s="3" t="s">
@@ -30481,7 +30500,7 @@
       </c>
     </row>
     <row r="1386" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1386" s="9">
+      <c r="A1386">
         <v>70</v>
       </c>
       <c r="B1386" s="3" t="s">
@@ -30504,7 +30523,7 @@
       </c>
     </row>
     <row r="1387" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1387" s="9">
+      <c r="A1387">
         <v>70</v>
       </c>
       <c r="B1387" s="3" t="s">
@@ -30525,7 +30544,7 @@
       </c>
     </row>
     <row r="1388" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1388" s="9">
+      <c r="A1388">
         <v>70</v>
       </c>
       <c r="B1388" s="3" t="s">
@@ -30548,7 +30567,7 @@
       </c>
     </row>
     <row r="1389" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1389" s="9">
+      <c r="A1389">
         <v>70</v>
       </c>
       <c r="B1389" s="3" t="s">
@@ -30631,7 +30650,7 @@
       </c>
     </row>
     <row r="1393" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1393" s="9"/>
+      <c r="A1393"/>
       <c r="B1393" s="1" t="s">
         <v>42</v>
       </c>
@@ -30866,7 +30885,7 @@
       </c>
     </row>
     <row r="1405" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1405" s="9">
+      <c r="A1405">
         <v>20</v>
       </c>
       <c r="B1405" s="3" t="s">
@@ -31047,7 +31066,7 @@
       </c>
     </row>
     <row r="1414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1414" s="9">
+      <c r="A1414">
         <v>21</v>
       </c>
       <c r="B1414" s="3" t="s">
@@ -31070,7 +31089,7 @@
       </c>
     </row>
     <row r="1415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1415" s="9">
+      <c r="A1415">
         <v>21</v>
       </c>
       <c r="B1415" s="3" t="s">
@@ -31093,7 +31112,7 @@
       </c>
     </row>
     <row r="1416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1416" s="9">
+      <c r="A1416">
         <v>21</v>
       </c>
       <c r="B1416" s="3" t="s">
@@ -31116,7 +31135,7 @@
       </c>
     </row>
     <row r="1417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1417" s="9">
+      <c r="A1417">
         <v>21</v>
       </c>
       <c r="B1417" s="3" t="s">
@@ -31139,7 +31158,7 @@
       </c>
     </row>
     <row r="1418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1418" s="9">
+      <c r="A1418">
         <v>21</v>
       </c>
       <c r="B1418" s="3" t="s">
@@ -31162,7 +31181,7 @@
       </c>
     </row>
     <row r="1419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1419" s="9">
+      <c r="A1419">
         <v>21</v>
       </c>
       <c r="B1419" s="3" t="s">
@@ -31183,7 +31202,7 @@
       </c>
     </row>
     <row r="1420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1420" s="9">
+      <c r="A1420">
         <v>21</v>
       </c>
       <c r="B1420" s="3" t="s">
@@ -31206,7 +31225,7 @@
       </c>
     </row>
     <row r="1421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1421" s="9">
+      <c r="A1421">
         <v>21</v>
       </c>
       <c r="B1421" s="3" t="s">
@@ -31229,7 +31248,7 @@
       </c>
     </row>
     <row r="1422" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1422" s="9">
+      <c r="A1422">
         <v>21</v>
       </c>
       <c r="B1422" s="3" t="s">
@@ -31272,7 +31291,7 @@
       </c>
     </row>
     <row r="1424" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1424" s="9"/>
+      <c r="A1424"/>
       <c r="B1424" s="1" t="s">
         <v>9</v>
       </c>
@@ -31291,7 +31310,7 @@
       </c>
     </row>
     <row r="1425" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1425" s="9">
+      <c r="A1425">
         <v>5</v>
       </c>
       <c r="B1425" s="3" t="s">
@@ -31312,7 +31331,7 @@
       </c>
     </row>
     <row r="1426" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1426" s="9">
+      <c r="A1426">
         <v>5</v>
       </c>
       <c r="B1426" s="3" t="s">
@@ -31335,7 +31354,7 @@
       </c>
     </row>
     <row r="1427" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1427" s="9">
+      <c r="A1427">
         <v>5</v>
       </c>
       <c r="B1427" s="3" t="s">
@@ -31358,7 +31377,7 @@
       </c>
     </row>
     <row r="1428" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1428" s="9">
+      <c r="A1428">
         <v>5</v>
       </c>
       <c r="B1428" s="3" t="s">
@@ -31381,7 +31400,7 @@
       </c>
     </row>
     <row r="1429" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1429" s="9">
+      <c r="A1429">
         <v>5</v>
       </c>
       <c r="B1429" s="3" t="s">
@@ -31404,7 +31423,7 @@
       </c>
     </row>
     <row r="1430" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1430" s="9">
+      <c r="A1430">
         <v>5</v>
       </c>
       <c r="B1430" s="3" t="s">
@@ -31685,7 +31704,7 @@
       </c>
     </row>
     <row r="1444" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1444" s="9">
+      <c r="A1444">
         <v>33</v>
       </c>
       <c r="B1444" s="3" t="s">
@@ -31708,7 +31727,7 @@
       </c>
     </row>
     <row r="1445" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1445" s="9">
+      <c r="A1445">
         <v>33</v>
       </c>
       <c r="B1445" s="3" t="s">
@@ -31805,7 +31824,7 @@
       </c>
     </row>
     <row r="1450" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1450" s="9"/>
+      <c r="A1450"/>
       <c r="B1450" s="1" t="s">
         <v>7</v>
       </c>
@@ -31906,7 +31925,7 @@
       </c>
     </row>
     <row r="1455" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1455" s="9">
+      <c r="A1455">
         <v>47</v>
       </c>
       <c r="B1455" s="1" t="s">
@@ -31985,7 +32004,7 @@
       </c>
     </row>
     <row r="1459" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1459" s="9"/>
+      <c r="A1459"/>
       <c r="B1459" s="1" t="s">
         <v>28</v>
       </c>
@@ -32006,7 +32025,7 @@
       </c>
     </row>
     <row r="1460" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1460" s="9"/>
+      <c r="A1460"/>
       <c r="B1460" s="1" t="s">
         <v>43</v>
       </c>
@@ -32025,7 +32044,7 @@
       </c>
     </row>
     <row r="1461" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1461" s="9">
+      <c r="A1461">
         <v>47</v>
       </c>
       <c r="B1461" s="3" t="s">
@@ -32204,7 +32223,7 @@
       </c>
     </row>
     <row r="1470" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1470" s="9"/>
+      <c r="A1470"/>
       <c r="B1470" s="1" t="s">
         <v>36</v>
       </c>
@@ -32245,7 +32264,7 @@
       </c>
     </row>
     <row r="1472" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1472" s="9"/>
+      <c r="A1472"/>
       <c r="B1472" s="1" t="s">
         <v>36</v>
       </c>
@@ -32266,7 +32285,7 @@
       </c>
     </row>
     <row r="1473" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1473" s="9"/>
+      <c r="A1473"/>
       <c r="B1473" s="1" t="s">
         <v>16</v>
       </c>
@@ -32287,7 +32306,7 @@
       </c>
     </row>
     <row r="1474" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1474" s="9">
+      <c r="A1474">
         <v>318</v>
       </c>
       <c r="B1474" s="3" t="s">
@@ -32310,7 +32329,7 @@
       </c>
     </row>
     <row r="1475" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1475" s="9">
+      <c r="A1475">
         <v>318</v>
       </c>
       <c r="B1475" s="3" t="s">
@@ -32333,7 +32352,7 @@
       </c>
     </row>
     <row r="1476" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1476" s="9">
+      <c r="A1476">
         <v>318</v>
       </c>
       <c r="B1476" s="3" t="s">
@@ -32354,7 +32373,7 @@
       </c>
     </row>
     <row r="1477" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1477" s="9">
+      <c r="A1477">
         <v>318</v>
       </c>
       <c r="B1477" s="3" t="s">
@@ -32377,7 +32396,7 @@
       </c>
     </row>
     <row r="1478" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1478" s="9"/>
+      <c r="A1478"/>
       <c r="B1478" s="1" t="s">
         <v>27</v>
       </c>
@@ -32396,7 +32415,7 @@
       </c>
     </row>
     <row r="1479" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1479" s="9"/>
+      <c r="A1479"/>
       <c r="B1479" s="1" t="s">
         <v>41</v>
       </c>
@@ -32613,7 +32632,7 @@
       </c>
     </row>
     <row r="1490" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1490" s="9">
+      <c r="A1490">
         <v>71</v>
       </c>
       <c r="B1490" s="3" t="s">
@@ -32634,7 +32653,7 @@
       </c>
     </row>
     <row r="1491" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1491" s="9">
+      <c r="A1491">
         <v>71</v>
       </c>
       <c r="B1491" s="3" t="s">
@@ -32657,7 +32676,7 @@
       </c>
     </row>
     <row r="1492" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1492" s="9">
+      <c r="A1492">
         <v>71</v>
       </c>
       <c r="B1492" s="3" t="s">
@@ -32680,7 +32699,7 @@
       </c>
     </row>
     <row r="1493" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1493" s="9">
+      <c r="A1493">
         <v>71</v>
       </c>
       <c r="B1493" s="3" t="s">
@@ -32703,7 +32722,7 @@
       </c>
     </row>
     <row r="1494" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1494" s="9">
+      <c r="A1494">
         <v>71</v>
       </c>
       <c r="B1494" s="3" t="s">
@@ -32726,7 +32745,7 @@
       </c>
     </row>
     <row r="1495" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1495" s="9">
+      <c r="A1495">
         <v>34</v>
       </c>
       <c r="B1495" s="3" t="s">
@@ -32749,7 +32768,7 @@
       </c>
     </row>
     <row r="1496" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1496" s="9">
+      <c r="A1496">
         <v>34</v>
       </c>
       <c r="B1496" s="3" t="s">
@@ -32772,7 +32791,7 @@
       </c>
     </row>
     <row r="1497" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1497" s="9">
+      <c r="A1497">
         <v>34</v>
       </c>
       <c r="B1497" s="3" t="s">
@@ -32795,7 +32814,7 @@
       </c>
     </row>
     <row r="1498" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1498" s="9">
+      <c r="A1498">
         <v>34</v>
       </c>
       <c r="B1498" s="3" t="s">
@@ -32818,7 +32837,7 @@
       </c>
     </row>
     <row r="1499" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1499" s="9">
+      <c r="A1499">
         <v>34</v>
       </c>
       <c r="B1499" s="3" t="s">
@@ -32975,7 +32994,7 @@
       </c>
     </row>
     <row r="1507" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1507" s="9"/>
+      <c r="A1507"/>
       <c r="B1507" s="1" t="s">
         <v>45</v>
       </c>
@@ -32996,7 +33015,7 @@
       </c>
     </row>
     <row r="1508" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1508" s="9"/>
+      <c r="A1508"/>
       <c r="B1508" s="1" t="s">
         <v>29</v>
       </c>
@@ -33017,7 +33036,7 @@
       </c>
     </row>
     <row r="1509" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1509" s="9"/>
+      <c r="A1509"/>
       <c r="B1509" s="1" t="s">
         <v>46</v>
       </c>
@@ -33510,7 +33529,7 @@
       </c>
     </row>
     <row r="1534" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1534" s="9"/>
+      <c r="A1534"/>
       <c r="B1534" s="1" t="s">
         <v>45</v>
       </c>
@@ -33531,7 +33550,7 @@
       </c>
     </row>
     <row r="1535" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1535" s="9"/>
+      <c r="A1535"/>
       <c r="B1535" s="1" t="s">
         <v>45</v>
       </c>
@@ -33552,7 +33571,7 @@
       </c>
     </row>
     <row r="1536" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1536" s="9"/>
+      <c r="A1536"/>
       <c r="B1536" s="1" t="s">
         <v>18</v>
       </c>
@@ -33609,7 +33628,7 @@
       </c>
     </row>
     <row r="1539" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1539" s="9">
+      <c r="A1539">
         <v>23</v>
       </c>
       <c r="B1539" s="3" t="s">
@@ -33632,7 +33651,7 @@
       </c>
     </row>
     <row r="1540" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1540" s="9">
+      <c r="A1540">
         <v>23</v>
       </c>
       <c r="B1540" s="3" t="s">
@@ -33655,7 +33674,7 @@
       </c>
     </row>
     <row r="1541" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1541" s="9">
+      <c r="A1541">
         <v>23</v>
       </c>
       <c r="B1541" s="3" t="s">
@@ -33678,7 +33697,7 @@
       </c>
     </row>
     <row r="1542" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1542" s="9">
+      <c r="A1542">
         <v>23</v>
       </c>
       <c r="B1542" s="3" t="s">
@@ -33701,7 +33720,7 @@
       </c>
     </row>
     <row r="1543" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1543" s="9">
+      <c r="A1543">
         <v>23</v>
       </c>
       <c r="B1543" s="3" t="s">
@@ -33862,7 +33881,7 @@
       </c>
     </row>
     <row r="1551" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1551" s="9">
+      <c r="A1551">
         <v>23</v>
       </c>
       <c r="B1551" s="1" t="s">
@@ -34045,7 +34064,7 @@
       </c>
     </row>
     <row r="1560" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1560" s="9">
+      <c r="A1560">
         <v>72</v>
       </c>
       <c r="B1560" s="3" t="s">
@@ -34066,7 +34085,7 @@
       </c>
     </row>
     <row r="1561" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1561" s="9">
+      <c r="A1561">
         <v>72</v>
       </c>
       <c r="B1561" s="3" t="s">
@@ -34089,7 +34108,7 @@
       </c>
     </row>
     <row r="1562" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1562" s="9">
+      <c r="A1562">
         <v>72</v>
       </c>
       <c r="B1562" s="3" t="s">
@@ -34168,7 +34187,7 @@
       </c>
     </row>
     <row r="1566" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1566" s="9"/>
+      <c r="A1566"/>
       <c r="B1566" s="1" t="s">
         <v>10</v>
       </c>
@@ -34189,7 +34208,7 @@
       </c>
     </row>
     <row r="1567" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1567" s="9"/>
+      <c r="A1567"/>
       <c r="B1567" s="1" t="s">
         <v>40</v>
       </c>
@@ -34228,7 +34247,7 @@
       </c>
     </row>
     <row r="1569" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1569" s="9"/>
+      <c r="A1569"/>
       <c r="B1569" s="1" t="s">
         <v>37</v>
       </c>
@@ -34443,7 +34462,7 @@
       </c>
     </row>
     <row r="1580" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1580" s="9"/>
+      <c r="A1580"/>
       <c r="B1580" s="1" t="s">
         <v>8</v>
       </c>
@@ -35216,7 +35235,7 @@
       </c>
     </row>
     <row r="1619" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1619" s="9"/>
+      <c r="A1619"/>
       <c r="B1619" s="1" t="s">
         <v>36</v>
       </c>
@@ -35393,7 +35412,7 @@
       </c>
     </row>
     <row r="1628" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1628" s="9">
+      <c r="A1628">
         <v>35</v>
       </c>
       <c r="B1628" s="3" t="s">
@@ -35414,7 +35433,7 @@
       </c>
     </row>
     <row r="1629" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1629" s="9">
+      <c r="A1629">
         <v>76</v>
       </c>
       <c r="B1629" s="3" t="s">
@@ -35437,7 +35456,7 @@
       </c>
     </row>
     <row r="1630" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1630" s="9">
+      <c r="A1630">
         <v>76</v>
       </c>
       <c r="B1630" s="3" t="s">
@@ -35460,7 +35479,7 @@
       </c>
     </row>
     <row r="1631" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1631" s="9">
+      <c r="A1631">
         <v>76</v>
       </c>
       <c r="B1631" s="3" t="s">
@@ -35483,7 +35502,7 @@
       </c>
     </row>
     <row r="1632" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1632" s="9">
+      <c r="A1632">
         <v>76</v>
       </c>
       <c r="B1632" s="3" t="s">
@@ -35566,7 +35585,7 @@
       </c>
     </row>
     <row r="1636" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1636" s="9"/>
+      <c r="A1636"/>
       <c r="B1636" s="1" t="s">
         <v>38</v>
       </c>
@@ -35607,7 +35626,7 @@
       </c>
     </row>
     <row r="1638" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1638" s="9">
+      <c r="A1638">
         <v>76</v>
       </c>
       <c r="B1638" s="3" t="s">
@@ -35630,7 +35649,7 @@
       </c>
     </row>
     <row r="1639" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1639" s="9">
+      <c r="A1639">
         <v>76</v>
       </c>
       <c r="B1639" s="3" t="s">
@@ -35687,7 +35706,7 @@
       </c>
     </row>
     <row r="1642" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1642" s="9"/>
+      <c r="A1642"/>
       <c r="B1642" s="1" t="s">
         <v>19</v>
       </c>
@@ -35928,7 +35947,7 @@
       </c>
     </row>
     <row r="1654" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1654" s="9">
+      <c r="A1654">
         <v>75</v>
       </c>
       <c r="B1654" s="3" t="s">
@@ -35951,7 +35970,7 @@
       </c>
     </row>
     <row r="1655" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1655" s="9">
+      <c r="A1655">
         <v>75</v>
       </c>
       <c r="B1655" s="3" t="s">
@@ -36090,7 +36109,7 @@
       </c>
     </row>
     <row r="1662" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1662" s="9"/>
+      <c r="A1662"/>
       <c r="B1662" s="1" t="s">
         <v>6</v>
       </c>
@@ -36191,7 +36210,7 @@
       </c>
     </row>
     <row r="1667" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1667" s="9"/>
+      <c r="A1667"/>
       <c r="B1667" s="1" t="s">
         <v>22</v>
       </c>
@@ -36352,7 +36371,7 @@
       </c>
     </row>
     <row r="1675" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1675" s="9"/>
+      <c r="A1675"/>
       <c r="B1675" s="1" t="s">
         <v>38</v>
       </c>
@@ -36433,7 +36452,7 @@
       </c>
     </row>
     <row r="1679" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1679" s="9"/>
+      <c r="A1679"/>
       <c r="B1679" s="1" t="s">
         <v>7</v>
       </c>
@@ -36454,7 +36473,7 @@
       </c>
     </row>
     <row r="1680" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1680" s="9"/>
+      <c r="A1680"/>
       <c r="B1680" s="1" t="s">
         <v>14</v>
       </c>
@@ -36515,7 +36534,7 @@
       </c>
     </row>
     <row r="1683" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1683" s="9"/>
+      <c r="A1683"/>
       <c r="B1683" s="1" t="s">
         <v>9</v>
       </c>
@@ -36572,7 +36591,7 @@
       </c>
     </row>
     <row r="1686" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1686" s="9"/>
+      <c r="A1686"/>
       <c r="B1686" s="1" t="s">
         <v>41</v>
       </c>
@@ -36633,7 +36652,7 @@
       </c>
     </row>
     <row r="1689" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1689" s="9">
+      <c r="A1689">
         <v>15</v>
       </c>
       <c r="B1689" s="3" t="s">
@@ -36656,7 +36675,7 @@
       </c>
     </row>
     <row r="1690" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1690" s="9">
+      <c r="A1690">
         <v>15</v>
       </c>
       <c r="B1690" s="3" t="s">
@@ -36677,7 +36696,7 @@
       </c>
     </row>
     <row r="1691" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1691" s="9">
+      <c r="A1691">
         <v>15</v>
       </c>
       <c r="B1691" s="3" t="s">
@@ -36698,7 +36717,7 @@
       </c>
     </row>
     <row r="1692" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1692" s="9">
+      <c r="A1692">
         <v>15</v>
       </c>
       <c r="B1692" s="3" t="s">
@@ -36721,7 +36740,7 @@
       </c>
     </row>
     <row r="1693" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1693" s="9">
+      <c r="A1693">
         <v>15</v>
       </c>
       <c r="B1693" s="3" t="s">
@@ -36764,7 +36783,7 @@
       </c>
     </row>
     <row r="1695" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1695" s="9"/>
+      <c r="A1695"/>
       <c r="B1695" s="1" t="s">
         <v>38</v>
       </c>
@@ -36785,7 +36804,7 @@
       </c>
     </row>
     <row r="1696" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1696" s="9"/>
+      <c r="A1696"/>
       <c r="B1696" s="1" t="s">
         <v>45</v>
       </c>
@@ -36806,7 +36825,7 @@
       </c>
     </row>
     <row r="1697" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1697" s="9"/>
+      <c r="A1697"/>
       <c r="B1697" s="1" t="s">
         <v>29</v>
       </c>
@@ -36943,7 +36962,7 @@
       </c>
     </row>
     <row r="1704" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1704" s="9"/>
+      <c r="A1704"/>
       <c r="B1704" s="1" t="s">
         <v>6</v>
       </c>
@@ -36982,7 +37001,7 @@
       </c>
     </row>
     <row r="1706" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1706" s="9"/>
+      <c r="A1706"/>
       <c r="B1706" s="1" t="s">
         <v>6</v>
       </c>
@@ -37023,7 +37042,7 @@
       </c>
     </row>
     <row r="1708" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1708" s="9">
+      <c r="A1708">
         <v>73</v>
       </c>
       <c r="B1708" s="3" t="s">
@@ -37046,7 +37065,7 @@
       </c>
     </row>
     <row r="1709" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1709" s="9">
+      <c r="A1709">
         <v>73</v>
       </c>
       <c r="B1709" s="3" t="s">
@@ -37069,7 +37088,7 @@
       </c>
     </row>
     <row r="1710" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1710" s="9">
+      <c r="A1710">
         <v>73</v>
       </c>
       <c r="B1710" s="3" t="s">
@@ -37092,7 +37111,7 @@
       </c>
     </row>
     <row r="1711" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1711" s="9">
+      <c r="A1711">
         <v>73</v>
       </c>
       <c r="B1711" s="3" t="s">
@@ -37195,7 +37214,7 @@
       </c>
     </row>
     <row r="1716" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1716" s="9">
+      <c r="A1716">
         <v>12</v>
       </c>
       <c r="B1716" s="3" t="s">
@@ -37218,7 +37237,7 @@
       </c>
     </row>
     <row r="1717" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1717" s="9">
+      <c r="A1717">
         <v>12</v>
       </c>
       <c r="B1717" s="3" t="s">
@@ -37241,7 +37260,7 @@
       </c>
     </row>
     <row r="1718" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1718" s="9">
+      <c r="A1718">
         <v>12</v>
       </c>
       <c r="B1718" s="3" t="s">
@@ -37264,7 +37283,7 @@
       </c>
     </row>
     <row r="1719" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1719" s="9">
+      <c r="A1719">
         <v>12</v>
       </c>
       <c r="B1719" s="3" t="s">
@@ -37287,7 +37306,7 @@
       </c>
     </row>
     <row r="1720" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1720" s="9">
+      <c r="A1720">
         <v>12</v>
       </c>
       <c r="B1720" s="1" t="s">
@@ -37326,7 +37345,7 @@
       </c>
     </row>
     <row r="1722" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1722" s="9">
+      <c r="A1722">
         <v>73</v>
       </c>
       <c r="B1722" s="1" t="s">
@@ -37347,7 +37366,7 @@
       </c>
     </row>
     <row r="1723" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1723" s="9"/>
+      <c r="A1723"/>
       <c r="B1723" s="1" t="s">
         <v>14</v>
       </c>
@@ -37364,6 +37383,374 @@
         <v>580</v>
       </c>
       <c r="G1723" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1724">
+        <v>4</v>
+      </c>
+      <c r="B1724" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1724" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1724" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1724" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1724" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1725">
+        <v>4</v>
+      </c>
+      <c r="B1725" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1725" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1725" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1725" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1725" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1726">
+        <v>4</v>
+      </c>
+      <c r="B1726" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1726" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1726" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1726" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1726" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1727">
+        <v>4</v>
+      </c>
+      <c r="B1727" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1727" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1727" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1727" t="s">
+        <v>579</v>
+      </c>
+      <c r="G1727" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1728">
+        <v>39</v>
+      </c>
+      <c r="B1728" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1728" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1728" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1728" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1728" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1728" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1729">
+        <v>39</v>
+      </c>
+      <c r="B1729" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1729" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D1729" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1729" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1729" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1729" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1730">
+        <v>60</v>
+      </c>
+      <c r="B1730" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1730" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1730" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1730" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1730" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1731">
+        <v>68</v>
+      </c>
+      <c r="B1731" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C1731" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1731" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="E1731" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1731" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1731" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1732">
+        <v>55</v>
+      </c>
+      <c r="B1732" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1732" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1732" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1732" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1732" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1733">
+        <v>55</v>
+      </c>
+      <c r="B1733" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1733" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1733" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>572</v>
+      </c>
+      <c r="F1733" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1733" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1734">
+        <v>55</v>
+      </c>
+      <c r="B1734" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1734" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1734" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>576</v>
+      </c>
+      <c r="F1734" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1734" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1735">
+        <v>55</v>
+      </c>
+      <c r="B1735" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1735" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1735" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>574</v>
+      </c>
+      <c r="F1735" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1735" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1736">
+        <v>55</v>
+      </c>
+      <c r="B1736" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1736" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1736" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>570</v>
+      </c>
+      <c r="F1736" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1736" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1737">
+        <v>55</v>
+      </c>
+      <c r="B1737" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1737" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1737" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>571</v>
+      </c>
+      <c r="F1737" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1737" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1738">
+        <v>55</v>
+      </c>
+      <c r="B1738" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1738" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1738" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>573</v>
+      </c>
+      <c r="F1738" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1738" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1739">
+        <v>55</v>
+      </c>
+      <c r="B1739" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="C1739" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1739" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>575</v>
+      </c>
+      <c r="F1739" t="s">
+        <v>580</v>
+      </c>
+      <c r="G1739" s="9">
         <v>1</v>
       </c>
     </row>
